--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="0" windowWidth="34520" windowHeight="17780" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="1160" yWindow="680" windowWidth="34520" windowHeight="17780" tabRatio="883" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
-    <sheet name="watchtower" sheetId="45" r:id="rId2"/>
-    <sheet name="dragoneyrie" sheetId="46" r:id="rId3"/>
+    <sheet name="watchTower" sheetId="45" r:id="rId2"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId3"/>
     <sheet name="wall" sheetId="18" r:id="rId4"/>
     <sheet name="warehouse" sheetId="19" r:id="rId5"/>
     <sheet name="tower" sheetId="20" r:id="rId6"/>
@@ -19,15 +19,15 @@
     <sheet name="miner" sheetId="25" r:id="rId10"/>
     <sheet name="farmer" sheetId="26" r:id="rId11"/>
     <sheet name="barracks" sheetId="32" r:id="rId12"/>
-    <sheet name="armycamp" sheetId="33" r:id="rId13"/>
-    <sheet name="blacksmith" sheetId="34" r:id="rId14"/>
-    <sheet name="materiardepot" sheetId="35" r:id="rId15"/>
-    <sheet name="toolshop" sheetId="36" r:id="rId16"/>
+    <sheet name="armyCamp" sheetId="33" r:id="rId13"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId14"/>
+    <sheet name="materiarDepot" sheetId="35" r:id="rId15"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId16"/>
     <sheet name="lumbermill" sheetId="27" r:id="rId17"/>
     <sheet name="stonemason" sheetId="28" r:id="rId18"/>
     <sheet name="foundry" sheetId="29" r:id="rId19"/>
     <sheet name="mill" sheetId="30" r:id="rId20"/>
-    <sheet name="townhall" sheetId="31" r:id="rId21"/>
+    <sheet name="townHall" sheetId="31" r:id="rId21"/>
     <sheet name="acdemy" sheetId="37" r:id="rId22"/>
     <sheet name="hospital" sheetId="38" r:id="rId23"/>
     <sheet name="tradeguild" sheetId="39" r:id="rId24"/>
@@ -169,10 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="10">
-  <si>
-    <t>INT_population</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="12">
   <si>
     <t>INT_wood</t>
   </si>
@@ -181,13 +178,6 @@
   </si>
   <si>
     <t>INT_iron</t>
-  </si>
-  <si>
-    <t>INT_buildtime</t>
-  </si>
-  <si>
-    <t>STR_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_blueprints</t>
@@ -203,6 +193,24 @@
   </si>
   <si>
     <t>INT_pulley</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
+  </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buildTime</t>
+  </si>
+  <si>
+    <t>INT_buildTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +299,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +310,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -360,7 +374,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="196">
+  <cellStyleXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -561,8 +575,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,8 +593,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="196">
+  <cellStyles count="202">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -675,6 +698,9 @@
     <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -768,6 +794,9 @@
     <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1220,7 +1249,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1230,34 +1259,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -2013,7 +2042,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:H22"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2023,34 +2052,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -2742,7 +2771,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2752,34 +2781,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -3471,7 +3500,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3481,34 +3510,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -4200,7 +4229,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4210,34 +4239,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -4929,7 +4958,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4939,34 +4968,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -5658,7 +5687,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5668,34 +5697,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -6387,7 +6416,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6397,34 +6426,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -7116,7 +7145,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7126,34 +7155,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -7525,7 +7554,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7535,34 +7564,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -7934,7 +7963,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7944,34 +7973,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -8342,8 +8371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8353,34 +8382,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -9072,7 +9101,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9082,34 +9111,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -9480,8 +9509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9491,34 +9520,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -9890,7 +9919,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9900,34 +9929,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -10491,7 +10520,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10501,34 +10530,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -11092,7 +11121,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11102,34 +11131,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -11501,7 +11530,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11511,34 +11540,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -11910,7 +11939,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11919,35 +11948,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -12319,7 +12348,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12328,35 +12357,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -12728,7 +12757,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12737,35 +12766,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -13137,7 +13166,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13146,35 +13175,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -13546,7 +13575,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13556,34 +13585,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -14275,7 +14304,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14285,34 +14314,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -15068,7 +15097,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15078,34 +15107,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -15797,7 +15826,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15807,34 +15836,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -16526,7 +16555,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -16536,34 +16565,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -17255,7 +17284,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:H22"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17265,34 +17294,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
@@ -17984,7 +18013,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:H22"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17994,34 +18023,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="1480" windowWidth="37240" windowHeight="17680" tabRatio="883" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="barracks" sheetId="32" r:id="rId8"/>
     <sheet name="armyCamp" sheetId="33" r:id="rId9"/>
     <sheet name="blackSmith" sheetId="34" r:id="rId10"/>
-    <sheet name="materiarDepot" sheetId="35" r:id="rId11"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId11"/>
     <sheet name="toolShop" sheetId="36" r:id="rId12"/>
     <sheet name="lumbermill" sheetId="27" r:id="rId13"/>
     <sheet name="stonemason" sheetId="28" r:id="rId14"/>
@@ -2750,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13618,7 +13618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="4780" yWindow="1940" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="10" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -354,7 +354,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="202">
+  <cellStyleXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -369,6 +369,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -577,7 +579,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="202">
+  <cellStyles count="204">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -681,6 +683,7 @@
     <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -777,6 +780,7 @@
     <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1229,7 +1233,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1327,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2022,7 +2026,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2120,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2750,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2849,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -3480,7 +3484,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3578,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -7456,7 +7460,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7554,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -10229,7 +10233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -10639,7 +10643,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10737,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -11368,7 +11372,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11466,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -12161,7 +12165,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12259,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -12890,7 +12894,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12988,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -14348,7 +14352,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14446,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -15077,7 +15081,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15175,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1940" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="10" activeTab="24"/>
+    <workbookView xWindow="1180" yWindow="0" windowWidth="36140" windowHeight="15540" tabRatio="883" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -13,130 +13,125 @@
     <sheet name="wall" sheetId="18" r:id="rId4"/>
     <sheet name="warehouse" sheetId="19" r:id="rId5"/>
     <sheet name="tower" sheetId="20" r:id="rId6"/>
-    <sheet name="quarrier" sheetId="24" r:id="rId7"/>
-    <sheet name="barracks" sheetId="32" r:id="rId8"/>
-    <sheet name="armyCamp" sheetId="33" r:id="rId9"/>
-    <sheet name="blackSmith" sheetId="34" r:id="rId10"/>
-    <sheet name="materialDepot" sheetId="35" r:id="rId11"/>
-    <sheet name="toolShop" sheetId="36" r:id="rId12"/>
-    <sheet name="lumbermill" sheetId="27" r:id="rId13"/>
-    <sheet name="stonemason" sheetId="28" r:id="rId14"/>
-    <sheet name="foundry" sheetId="29" r:id="rId15"/>
-    <sheet name="mill" sheetId="30" r:id="rId16"/>
-    <sheet name="townHall" sheetId="31" r:id="rId17"/>
-    <sheet name="acdemy" sheetId="37" r:id="rId18"/>
-    <sheet name="hospital" sheetId="38" r:id="rId19"/>
-    <sheet name="tradeguild" sheetId="39" r:id="rId20"/>
-    <sheet name="prison" sheetId="40" r:id="rId21"/>
-    <sheet name="trainingground" sheetId="41" r:id="rId22"/>
-    <sheet name="hunterhall" sheetId="42" r:id="rId23"/>
-    <sheet name="stable" sheetId="43" r:id="rId24"/>
-    <sheet name="workshop" sheetId="44" r:id="rId25"/>
+    <sheet name="barracks" sheetId="32" r:id="rId7"/>
+    <sheet name="armyCamp" sheetId="33" r:id="rId8"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId11"/>
+    <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
+    <sheet name="stonemason" sheetId="28" r:id="rId13"/>
+    <sheet name="foundry" sheetId="29" r:id="rId14"/>
+    <sheet name="mill" sheetId="30" r:id="rId15"/>
+    <sheet name="townHall" sheetId="31" r:id="rId16"/>
+    <sheet name="acdemy" sheetId="37" r:id="rId17"/>
+    <sheet name="hospital" sheetId="38" r:id="rId18"/>
+    <sheet name="tradeGuild" sheetId="39" r:id="rId19"/>
+    <sheet name="prison" sheetId="40" r:id="rId20"/>
+    <sheet name="trainingGround" sheetId="41" r:id="rId21"/>
+    <sheet name="hunterhall" sheetId="42" r:id="rId22"/>
+    <sheet name="stable" sheetId="43" r:id="rId23"/>
+    <sheet name="workshop" sheetId="44" r:id="rId24"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="24">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="24">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="24">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="24">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -149,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="12">
   <si>
     <t>INT_wood</t>
   </si>
@@ -2026,7 +2021,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2103,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="C3" s="1">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="D3" s="1">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2124,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2135,13 +2130,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1380</v>
+        <v>1140</v>
       </c>
       <c r="C4" s="1">
-        <v>1380</v>
+        <v>1140</v>
       </c>
       <c r="D4" s="1">
-        <v>1380</v>
+        <v>1140</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2156,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2167,13 +2162,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4140</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>4140</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>4140</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2188,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2199,13 +2194,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8280</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="C6" s="1">
-        <v>8280</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="D6" s="1">
-        <v>8280</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2220,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2231,13 +2226,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>24839.999999999996</v>
+        <v>20520</v>
       </c>
       <c r="C7" s="1">
-        <v>24839.999999999996</v>
+        <v>20520</v>
       </c>
       <c r="D7" s="1">
-        <v>24839.999999999996</v>
+        <v>20520</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2252,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>621</v>
+        <v>513</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2263,13 +2258,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>49679.999999999993</v>
+        <v>41040</v>
       </c>
       <c r="C8" s="1">
-        <v>49679.999999999993</v>
+        <v>41040</v>
       </c>
       <c r="D8" s="1">
-        <v>49679.999999999993</v>
+        <v>41040</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -2284,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1242</v>
+        <v>1026</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2295,13 +2290,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>74520</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>74520</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="D9" s="1">
-        <v>74520</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -2316,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1863</v>
+        <v>1539</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -2327,13 +2322,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>99359.999999999985</v>
+        <v>82080</v>
       </c>
       <c r="C10" s="1">
-        <v>99359.999999999985</v>
+        <v>82080</v>
       </c>
       <c r="D10" s="1">
-        <v>99359.999999999985</v>
+        <v>82080</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -2348,7 +2343,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2484</v>
+        <v>2052</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2359,13 +2354,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>124199.99999999999</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>124199.99999999999</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>124199.99999999999</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -2380,7 +2375,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3726</v>
+        <v>3078</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2391,13 +2386,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>149040</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>149040</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>149040</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -2412,7 +2407,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4968</v>
+        <v>4104</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2423,13 +2418,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>173880</v>
+        <v>143640</v>
       </c>
       <c r="C13" s="1">
-        <v>173880</v>
+        <v>143640</v>
       </c>
       <c r="D13" s="1">
-        <v>173880</v>
+        <v>143640</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -2444,7 +2439,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>9936</v>
+        <v>8208</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2455,13 +2450,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>198719.99999999997</v>
+        <v>164160</v>
       </c>
       <c r="C14" s="1">
-        <v>198719.99999999997</v>
+        <v>164160</v>
       </c>
       <c r="D14" s="1">
-        <v>198719.99999999997</v>
+        <v>164160</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -2476,7 +2471,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>14904</v>
+        <v>12312</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2487,13 +2482,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>223559.99999999997</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>223559.99999999997</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>223559.99999999997</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -2508,7 +2503,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>19872</v>
+        <v>16416</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2519,13 +2514,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>248399.99999999997</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>248399.99999999997</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>248399.99999999997</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -2540,7 +2535,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>29808</v>
+        <v>24624</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -2551,13 +2546,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>331200</v>
+        <v>273600</v>
       </c>
       <c r="C17" s="1">
-        <v>331200</v>
+        <v>273600</v>
       </c>
       <c r="D17" s="1">
-        <v>331200</v>
+        <v>273600</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -2572,7 +2567,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>39744</v>
+        <v>32832</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2583,13 +2578,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>413999.99999999994</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="C18" s="1">
-        <v>413999.99999999994</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="D18" s="1">
-        <v>413999.99999999994</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -2604,7 +2599,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>49680</v>
+        <v>41040</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2615,13 +2610,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>496799.99999999994</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="C19" s="1">
-        <v>496799.99999999994</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>496799.99999999994</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -2636,7 +2631,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>59616</v>
+        <v>49248</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -2647,13 +2642,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>579600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="C20" s="1">
-        <v>579600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="D20" s="1">
-        <v>579600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -2668,7 +2663,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>79488</v>
+        <v>65664</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -2679,13 +2674,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>662400</v>
+        <v>547200</v>
       </c>
       <c r="C21" s="1">
-        <v>662400</v>
+        <v>547200</v>
       </c>
       <c r="D21" s="1">
-        <v>662400</v>
+        <v>547200</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -2700,7 +2695,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>99360</v>
+        <v>82080</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -2711,13 +2706,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1242000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1242000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>1242000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -2732,7 +2727,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>119232</v>
+        <v>98496</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2832,13 +2827,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="C3" s="1">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="D3" s="1">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2853,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2864,13 +2859,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1140</v>
+        <v>1300</v>
       </c>
       <c r="C4" s="1">
-        <v>1140</v>
+        <v>1300</v>
       </c>
       <c r="D4" s="1">
-        <v>1140</v>
+        <v>1300</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2885,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2896,13 +2891,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3419.9999999999995</v>
+        <v>3900</v>
       </c>
       <c r="C5" s="1">
-        <v>3419.9999999999995</v>
+        <v>3900</v>
       </c>
       <c r="D5" s="1">
-        <v>3419.9999999999995</v>
+        <v>3900</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2917,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2928,13 +2923,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>6839.9999999999991</v>
+        <v>7800</v>
       </c>
       <c r="C6" s="1">
-        <v>6839.9999999999991</v>
+        <v>7800</v>
       </c>
       <c r="D6" s="1">
-        <v>6839.9999999999991</v>
+        <v>7800</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2949,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2960,13 +2955,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>20520</v>
+        <v>23400</v>
       </c>
       <c r="C7" s="1">
-        <v>20520</v>
+        <v>23400</v>
       </c>
       <c r="D7" s="1">
-        <v>20520</v>
+        <v>23400</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2981,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2992,13 +2987,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>41040</v>
+        <v>46800</v>
       </c>
       <c r="C8" s="1">
-        <v>41040</v>
+        <v>46800</v>
       </c>
       <c r="D8" s="1">
-        <v>41040</v>
+        <v>46800</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -3013,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1026</v>
+        <v>1170</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -3024,13 +3019,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>61559.999999999993</v>
+        <v>70200</v>
       </c>
       <c r="C9" s="1">
-        <v>61559.999999999993</v>
+        <v>70200</v>
       </c>
       <c r="D9" s="1">
-        <v>61559.999999999993</v>
+        <v>70200</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -3045,7 +3040,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1539</v>
+        <v>1755</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -3056,13 +3051,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>82080</v>
+        <v>93600</v>
       </c>
       <c r="C10" s="1">
-        <v>82080</v>
+        <v>93600</v>
       </c>
       <c r="D10" s="1">
-        <v>82080</v>
+        <v>93600</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -3077,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2052</v>
+        <v>2340</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -3088,13 +3083,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>102599.99999999999</v>
+        <v>117000</v>
       </c>
       <c r="C11" s="1">
-        <v>102599.99999999999</v>
+        <v>117000</v>
       </c>
       <c r="D11" s="1">
-        <v>102599.99999999999</v>
+        <v>117000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -3109,7 +3104,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3078</v>
+        <v>3510</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -3120,13 +3115,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>123119.99999999999</v>
+        <v>140400</v>
       </c>
       <c r="C12" s="1">
-        <v>123119.99999999999</v>
+        <v>140400</v>
       </c>
       <c r="D12" s="1">
-        <v>123119.99999999999</v>
+        <v>140400</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -3141,7 +3136,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4104</v>
+        <v>4680</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -3152,13 +3147,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>143640</v>
+        <v>163800</v>
       </c>
       <c r="C13" s="1">
-        <v>143640</v>
+        <v>163800</v>
       </c>
       <c r="D13" s="1">
-        <v>143640</v>
+        <v>163800</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -3173,7 +3168,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>8208</v>
+        <v>9360</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -3184,13 +3179,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>164160</v>
+        <v>187200</v>
       </c>
       <c r="C14" s="1">
-        <v>164160</v>
+        <v>187200</v>
       </c>
       <c r="D14" s="1">
-        <v>164160</v>
+        <v>187200</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -3205,7 +3200,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>12312</v>
+        <v>14040</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -3216,13 +3211,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>184679.99999999997</v>
+        <v>210600</v>
       </c>
       <c r="C15" s="1">
-        <v>184679.99999999997</v>
+        <v>210600</v>
       </c>
       <c r="D15" s="1">
-        <v>184679.99999999997</v>
+        <v>210600</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -3237,7 +3232,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>16416</v>
+        <v>18720</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -3248,13 +3243,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>205199.99999999997</v>
+        <v>234000</v>
       </c>
       <c r="C16" s="1">
-        <v>205199.99999999997</v>
+        <v>234000</v>
       </c>
       <c r="D16" s="1">
-        <v>205199.99999999997</v>
+        <v>234000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -3269,7 +3264,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>24624</v>
+        <v>28080</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3280,13 +3275,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>273600</v>
+        <v>312000</v>
       </c>
       <c r="C17" s="1">
-        <v>273600</v>
+        <v>312000</v>
       </c>
       <c r="D17" s="1">
-        <v>273600</v>
+        <v>312000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -3301,7 +3296,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>32832</v>
+        <v>37440</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3312,13 +3307,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>341999.99999999994</v>
+        <v>390000</v>
       </c>
       <c r="C18" s="1">
-        <v>341999.99999999994</v>
+        <v>390000</v>
       </c>
       <c r="D18" s="1">
-        <v>341999.99999999994</v>
+        <v>390000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -3333,7 +3328,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>41040</v>
+        <v>46800</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -3344,13 +3339,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>410399.99999999994</v>
+        <v>468000</v>
       </c>
       <c r="C19" s="1">
-        <v>410399.99999999994</v>
+        <v>468000</v>
       </c>
       <c r="D19" s="1">
-        <v>410399.99999999994</v>
+        <v>468000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -3365,7 +3360,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>49248</v>
+        <v>56160</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3376,13 +3371,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>478799.99999999994</v>
+        <v>546000</v>
       </c>
       <c r="C20" s="1">
-        <v>478799.99999999994</v>
+        <v>546000</v>
       </c>
       <c r="D20" s="1">
-        <v>478799.99999999994</v>
+        <v>546000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -3397,7 +3392,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>65664</v>
+        <v>74880</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3408,13 +3403,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>547200</v>
+        <v>624000</v>
       </c>
       <c r="C21" s="1">
-        <v>547200</v>
+        <v>624000</v>
       </c>
       <c r="D21" s="1">
-        <v>547200</v>
+        <v>624000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -3429,7 +3424,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>82080</v>
+        <v>93600</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3440,13 +3435,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1170000</v>
       </c>
       <c r="C22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1170000</v>
       </c>
       <c r="D22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1170000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -3461,7 +3456,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>98496</v>
+        <v>112320</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3481,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3561,28 +3556,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>650</v>
+        <v>156240</v>
       </c>
       <c r="C3" s="1">
-        <v>650</v>
+        <v>156240</v>
       </c>
       <c r="D3" s="1">
-        <v>650</v>
+        <v>156240</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I3" s="1">
-        <v>42</v>
+        <v>1674</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -3593,28 +3588,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1300</v>
+        <v>178560</v>
       </c>
       <c r="C4" s="1">
-        <v>1300</v>
+        <v>178560</v>
       </c>
       <c r="D4" s="1">
-        <v>1300</v>
+        <v>178560</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I4" s="1">
-        <v>117</v>
+        <v>2232</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -3625,28 +3620,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3900</v>
+        <v>200880</v>
       </c>
       <c r="C5" s="1">
-        <v>3900</v>
+        <v>200880</v>
       </c>
       <c r="D5" s="1">
-        <v>3900</v>
+        <v>200880</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="I5" s="1">
-        <v>195</v>
+        <v>3348</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -3657,28 +3652,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7800</v>
+        <v>223200</v>
       </c>
       <c r="C6" s="1">
-        <v>7800</v>
+        <v>223200</v>
       </c>
       <c r="D6" s="1">
-        <v>7800</v>
+        <v>223200</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I6" s="1">
-        <v>312</v>
+        <v>4464</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -3689,28 +3684,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>23400</v>
+        <v>297600</v>
       </c>
       <c r="C7" s="1">
-        <v>23400</v>
+        <v>297600</v>
       </c>
       <c r="D7" s="1">
-        <v>23400</v>
+        <v>297600</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I7" s="1">
-        <v>585</v>
+        <v>13392</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -3721,28 +3716,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>46800</v>
+        <v>372000</v>
       </c>
       <c r="C8" s="1">
-        <v>46800</v>
+        <v>372000</v>
       </c>
       <c r="D8" s="1">
-        <v>46800</v>
+        <v>372000</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>3600</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>3600</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>3600</v>
       </c>
       <c r="I8" s="1">
-        <v>1170</v>
+        <v>26784</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -3753,28 +3748,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>70200</v>
+        <v>446400</v>
       </c>
       <c r="C9" s="1">
-        <v>70200</v>
+        <v>446400</v>
       </c>
       <c r="D9" s="1">
-        <v>70200</v>
+        <v>446400</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>4200</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>4200</v>
       </c>
       <c r="G9" s="1">
-        <v>10</v>
+        <v>4200</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>4200</v>
       </c>
       <c r="I9" s="1">
-        <v>1755</v>
+        <v>44640</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -3785,28 +3780,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>93600</v>
+        <v>520800</v>
       </c>
       <c r="C10" s="1">
-        <v>93600</v>
+        <v>520800</v>
       </c>
       <c r="D10" s="1">
-        <v>93600</v>
+        <v>520800</v>
       </c>
       <c r="E10" s="1">
-        <v>40</v>
+        <v>4800</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>4800</v>
       </c>
       <c r="G10" s="1">
-        <v>40</v>
+        <v>4800</v>
       </c>
       <c r="H10" s="1">
-        <v>40</v>
+        <v>4800</v>
       </c>
       <c r="I10" s="1">
-        <v>2340</v>
+        <v>71424</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -3817,28 +3812,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>117000</v>
+        <v>595200</v>
       </c>
       <c r="C11" s="1">
-        <v>117000</v>
+        <v>595200</v>
       </c>
       <c r="D11" s="1">
-        <v>117000</v>
+        <v>595200</v>
       </c>
       <c r="E11" s="1">
-        <v>120</v>
+        <v>5400</v>
       </c>
       <c r="F11" s="1">
-        <v>120</v>
+        <v>5400</v>
       </c>
       <c r="G11" s="1">
-        <v>120</v>
+        <v>5400</v>
       </c>
       <c r="H11" s="1">
-        <v>120</v>
+        <v>5400</v>
       </c>
       <c r="I11" s="1">
-        <v>3510</v>
+        <v>107136</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -3849,350 +3844,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>140400</v>
+        <v>1116000</v>
       </c>
       <c r="C12" s="1">
-        <v>140400</v>
+        <v>1116000</v>
       </c>
       <c r="D12" s="1">
-        <v>140400</v>
+        <v>1116000</v>
       </c>
       <c r="E12" s="1">
-        <v>360</v>
+        <v>6000</v>
       </c>
       <c r="F12" s="1">
-        <v>360</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="1">
-        <v>360</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="1">
-        <v>360</v>
+        <v>6000</v>
       </c>
       <c r="I12" s="1">
-        <v>4680</v>
+        <v>142848</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>163800</v>
-      </c>
-      <c r="C13" s="1">
-        <v>163800</v>
-      </c>
-      <c r="D13" s="1">
-        <v>163800</v>
-      </c>
-      <c r="E13" s="1">
-        <v>600</v>
-      </c>
-      <c r="F13" s="1">
-        <v>600</v>
-      </c>
-      <c r="G13" s="1">
-        <v>600</v>
-      </c>
-      <c r="H13" s="1">
-        <v>600</v>
-      </c>
-      <c r="I13" s="1">
-        <v>9360</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>187200</v>
-      </c>
-      <c r="C14" s="1">
-        <v>187200</v>
-      </c>
-      <c r="D14" s="1">
-        <v>187200</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I14" s="1">
-        <v>14040</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>210600</v>
-      </c>
-      <c r="C15" s="1">
-        <v>210600</v>
-      </c>
-      <c r="D15" s="1">
-        <v>210600</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I15" s="1">
-        <v>18720</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>234000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>234000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>234000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I16" s="1">
-        <v>28080</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>312000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>312000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>312000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I17" s="1">
-        <v>37440</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>390000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>390000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>390000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I18" s="1">
-        <v>46800</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>468000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>468000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>468000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>56160</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>546000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>546000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>546000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I20" s="1">
-        <v>74880</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>624000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>624000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>624000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I21" s="1">
-        <v>93600</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1170000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1170000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1170000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>112320</v>
-      </c>
-      <c r="J22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4290,13 +3965,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>156240</v>
+        <v>161280</v>
       </c>
       <c r="C3" s="1">
-        <v>156240</v>
+        <v>161280</v>
       </c>
       <c r="D3" s="1">
-        <v>156240</v>
+        <v>161280</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -4322,13 +3997,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>178560</v>
+        <v>184320</v>
       </c>
       <c r="C4" s="1">
-        <v>178560</v>
+        <v>184320</v>
       </c>
       <c r="D4" s="1">
-        <v>178560</v>
+        <v>184320</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -4354,13 +4029,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>200880</v>
+        <v>207360</v>
       </c>
       <c r="C5" s="1">
-        <v>200880</v>
+        <v>207360</v>
       </c>
       <c r="D5" s="1">
-        <v>200880</v>
+        <v>207360</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -4386,13 +4061,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="C6" s="1">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="D6" s="1">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -4418,13 +4093,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>297600</v>
+        <v>307200</v>
       </c>
       <c r="C7" s="1">
-        <v>297600</v>
+        <v>307200</v>
       </c>
       <c r="D7" s="1">
-        <v>297600</v>
+        <v>307200</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -4450,13 +4125,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>372000</v>
+        <v>384000</v>
       </c>
       <c r="C8" s="1">
-        <v>372000</v>
+        <v>384000</v>
       </c>
       <c r="D8" s="1">
-        <v>372000</v>
+        <v>384000</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -4482,13 +4157,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>446400</v>
+        <v>460800</v>
       </c>
       <c r="C9" s="1">
-        <v>446400</v>
+        <v>460800</v>
       </c>
       <c r="D9" s="1">
-        <v>446400</v>
+        <v>460800</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -4514,13 +4189,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>520800</v>
+        <v>537600</v>
       </c>
       <c r="C10" s="1">
-        <v>520800</v>
+        <v>537600</v>
       </c>
       <c r="D10" s="1">
-        <v>520800</v>
+        <v>537600</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -4546,13 +4221,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>595200</v>
+        <v>614400</v>
       </c>
       <c r="C11" s="1">
-        <v>595200</v>
+        <v>614400</v>
       </c>
       <c r="D11" s="1">
-        <v>595200</v>
+        <v>614400</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -4578,13 +4253,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1116000</v>
+        <v>1152000</v>
       </c>
       <c r="C12" s="1">
-        <v>1116000</v>
+        <v>1152000</v>
       </c>
       <c r="D12" s="1">
-        <v>1116000</v>
+        <v>1152000</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -4699,13 +4374,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>161280</v>
+        <v>166320</v>
       </c>
       <c r="C3" s="1">
-        <v>161280</v>
+        <v>166320</v>
       </c>
       <c r="D3" s="1">
-        <v>161280</v>
+        <v>166320</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -4731,13 +4406,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>184320</v>
+        <v>190080</v>
       </c>
       <c r="C4" s="1">
-        <v>184320</v>
+        <v>190080</v>
       </c>
       <c r="D4" s="1">
-        <v>184320</v>
+        <v>190080</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -4763,13 +4438,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>207360</v>
+        <v>213840</v>
       </c>
       <c r="C5" s="1">
-        <v>207360</v>
+        <v>213840</v>
       </c>
       <c r="D5" s="1">
-        <v>207360</v>
+        <v>213840</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -4795,13 +4470,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>230400</v>
+        <v>237600</v>
       </c>
       <c r="C6" s="1">
-        <v>230400</v>
+        <v>237600</v>
       </c>
       <c r="D6" s="1">
-        <v>230400</v>
+        <v>237600</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -4827,13 +4502,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>307200</v>
+        <v>316800</v>
       </c>
       <c r="C7" s="1">
-        <v>307200</v>
+        <v>316800</v>
       </c>
       <c r="D7" s="1">
-        <v>307200</v>
+        <v>316800</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -4859,13 +4534,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>384000</v>
+        <v>396000</v>
       </c>
       <c r="C8" s="1">
-        <v>384000</v>
+        <v>396000</v>
       </c>
       <c r="D8" s="1">
-        <v>384000</v>
+        <v>396000</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -4891,13 +4566,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>460800</v>
+        <v>475200</v>
       </c>
       <c r="C9" s="1">
-        <v>460800</v>
+        <v>475200</v>
       </c>
       <c r="D9" s="1">
-        <v>460800</v>
+        <v>475200</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -4923,13 +4598,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>537600</v>
+        <v>554400</v>
       </c>
       <c r="C10" s="1">
-        <v>537600</v>
+        <v>554400</v>
       </c>
       <c r="D10" s="1">
-        <v>537600</v>
+        <v>554400</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -4955,13 +4630,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>614400</v>
+        <v>633600</v>
       </c>
       <c r="C11" s="1">
-        <v>614400</v>
+        <v>633600</v>
       </c>
       <c r="D11" s="1">
-        <v>614400</v>
+        <v>633600</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -4987,13 +4662,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1152000</v>
+        <v>1188000</v>
       </c>
       <c r="C12" s="1">
-        <v>1152000</v>
+        <v>1188000</v>
       </c>
       <c r="D12" s="1">
-        <v>1152000</v>
+        <v>1188000</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -5108,13 +4783,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>166320</v>
+        <v>171360</v>
       </c>
       <c r="C3" s="1">
-        <v>166320</v>
+        <v>171360</v>
       </c>
       <c r="D3" s="1">
-        <v>166320</v>
+        <v>171360</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -5140,13 +4815,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>190080</v>
+        <v>195840</v>
       </c>
       <c r="C4" s="1">
-        <v>190080</v>
+        <v>195840</v>
       </c>
       <c r="D4" s="1">
-        <v>190080</v>
+        <v>195840</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -5172,13 +4847,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>213840</v>
+        <v>220320.00000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>213840</v>
+        <v>220320.00000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>213840</v>
+        <v>220320.00000000003</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -5204,13 +4879,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>237600</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>237600</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>237600</v>
+        <v>244800.00000000003</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -5236,13 +4911,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>316800</v>
+        <v>326400</v>
       </c>
       <c r="C7" s="1">
-        <v>316800</v>
+        <v>326400</v>
       </c>
       <c r="D7" s="1">
-        <v>316800</v>
+        <v>326400</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -5268,13 +4943,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>396000</v>
+        <v>408000.00000000006</v>
       </c>
       <c r="C8" s="1">
-        <v>396000</v>
+        <v>408000.00000000006</v>
       </c>
       <c r="D8" s="1">
-        <v>396000</v>
+        <v>408000.00000000006</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -5300,13 +4975,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>475200</v>
+        <v>489600.00000000006</v>
       </c>
       <c r="C9" s="1">
-        <v>475200</v>
+        <v>489600.00000000006</v>
       </c>
       <c r="D9" s="1">
-        <v>475200</v>
+        <v>489600.00000000006</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -5332,13 +5007,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>554400</v>
+        <v>571200</v>
       </c>
       <c r="C10" s="1">
-        <v>554400</v>
+        <v>571200</v>
       </c>
       <c r="D10" s="1">
-        <v>554400</v>
+        <v>571200</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -5364,13 +5039,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>633600</v>
+        <v>652800</v>
       </c>
       <c r="C11" s="1">
-        <v>633600</v>
+        <v>652800</v>
       </c>
       <c r="D11" s="1">
-        <v>633600</v>
+        <v>652800</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -5396,13 +5071,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1188000</v>
+        <v>1224000</v>
       </c>
       <c r="C12" s="1">
-        <v>1188000</v>
+        <v>1224000</v>
       </c>
       <c r="D12" s="1">
-        <v>1188000</v>
+        <v>1224000</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -5517,13 +5192,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>171360</v>
+        <v>178919.99999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>171360</v>
+        <v>178919.99999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>171360</v>
+        <v>178919.99999999997</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -5549,13 +5224,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>195840</v>
+        <v>204480</v>
       </c>
       <c r="C4" s="1">
-        <v>195840</v>
+        <v>204480</v>
       </c>
       <c r="D4" s="1">
-        <v>195840</v>
+        <v>204480</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -5581,13 +5256,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>220320.00000000003</v>
+        <v>230040</v>
       </c>
       <c r="C5" s="1">
-        <v>220320.00000000003</v>
+        <v>230040</v>
       </c>
       <c r="D5" s="1">
-        <v>220320.00000000003</v>
+        <v>230040</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -5613,13 +5288,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>244800.00000000003</v>
+        <v>255600</v>
       </c>
       <c r="C6" s="1">
-        <v>244800.00000000003</v>
+        <v>255600</v>
       </c>
       <c r="D6" s="1">
-        <v>244800.00000000003</v>
+        <v>255600</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -5645,13 +5320,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>326400</v>
+        <v>340799.99999999994</v>
       </c>
       <c r="C7" s="1">
-        <v>326400</v>
+        <v>340799.99999999994</v>
       </c>
       <c r="D7" s="1">
-        <v>326400</v>
+        <v>340799.99999999994</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -5677,13 +5352,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>408000.00000000006</v>
+        <v>426000</v>
       </c>
       <c r="C8" s="1">
-        <v>408000.00000000006</v>
+        <v>426000</v>
       </c>
       <c r="D8" s="1">
-        <v>408000.00000000006</v>
+        <v>426000</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -5709,13 +5384,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>489600.00000000006</v>
+        <v>511200</v>
       </c>
       <c r="C9" s="1">
-        <v>489600.00000000006</v>
+        <v>511200</v>
       </c>
       <c r="D9" s="1">
-        <v>489600.00000000006</v>
+        <v>511200</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -5741,13 +5416,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>571200</v>
+        <v>596399.99999999988</v>
       </c>
       <c r="C10" s="1">
-        <v>571200</v>
+        <v>596399.99999999988</v>
       </c>
       <c r="D10" s="1">
-        <v>571200</v>
+        <v>596399.99999999988</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -5773,13 +5448,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>652800</v>
+        <v>681599.99999999988</v>
       </c>
       <c r="C11" s="1">
-        <v>652800</v>
+        <v>681599.99999999988</v>
       </c>
       <c r="D11" s="1">
-        <v>652800</v>
+        <v>681599.99999999988</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -5805,13 +5480,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1224000</v>
+        <v>1277999.9999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1224000</v>
+        <v>1277999.9999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>1224000</v>
+        <v>1277999.9999999998</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -5846,7 +5521,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -5926,28 +5601,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>178919.99999999997</v>
+        <v>32400</v>
       </c>
       <c r="C3" s="1">
-        <v>178919.99999999997</v>
+        <v>32400</v>
       </c>
       <c r="D3" s="1">
-        <v>178919.99999999997</v>
+        <v>32400</v>
       </c>
       <c r="E3" s="1">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>1674</v>
+        <v>2430</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -5958,28 +5633,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>204480</v>
+        <v>64800</v>
       </c>
       <c r="C4" s="1">
-        <v>204480</v>
+        <v>64800</v>
       </c>
       <c r="D4" s="1">
-        <v>204480</v>
+        <v>64800</v>
       </c>
       <c r="E4" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1">
-        <v>2232</v>
+        <v>3240</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -5990,28 +5665,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>230040</v>
+        <v>97200</v>
       </c>
       <c r="C5" s="1">
-        <v>230040</v>
+        <v>97200</v>
       </c>
       <c r="D5" s="1">
-        <v>230040</v>
+        <v>97200</v>
       </c>
       <c r="E5" s="1">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="H5" s="1">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="I5" s="1">
-        <v>3348</v>
+        <v>4860</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -6022,28 +5697,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>255600</v>
+        <v>129600</v>
       </c>
       <c r="C6" s="1">
-        <v>255600</v>
+        <v>129600</v>
       </c>
       <c r="D6" s="1">
-        <v>255600</v>
+        <v>129600</v>
       </c>
       <c r="E6" s="1">
-        <v>2400</v>
+        <v>360</v>
       </c>
       <c r="F6" s="1">
-        <v>2400</v>
+        <v>360</v>
       </c>
       <c r="G6" s="1">
-        <v>2400</v>
+        <v>360</v>
       </c>
       <c r="H6" s="1">
-        <v>2400</v>
+        <v>360</v>
       </c>
       <c r="I6" s="1">
-        <v>4464</v>
+        <v>6480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -6054,28 +5729,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>340799.99999999994</v>
+        <v>162000</v>
       </c>
       <c r="C7" s="1">
-        <v>340799.99999999994</v>
+        <v>162000</v>
       </c>
       <c r="D7" s="1">
-        <v>340799.99999999994</v>
+        <v>162000</v>
       </c>
       <c r="E7" s="1">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="F7" s="1">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G7" s="1">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="H7" s="1">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="I7" s="1">
-        <v>13392</v>
+        <v>12960</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -6086,28 +5761,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>426000</v>
+        <v>194400</v>
       </c>
       <c r="C8" s="1">
-        <v>426000</v>
+        <v>194400</v>
       </c>
       <c r="D8" s="1">
-        <v>426000</v>
+        <v>194400</v>
       </c>
       <c r="E8" s="1">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="F8" s="1">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="1">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="1">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="I8" s="1">
-        <v>26784</v>
+        <v>19440</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -6118,28 +5793,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>511200</v>
+        <v>226800</v>
       </c>
       <c r="C9" s="1">
-        <v>511200</v>
+        <v>226800</v>
       </c>
       <c r="D9" s="1">
-        <v>511200</v>
+        <v>226800</v>
       </c>
       <c r="E9" s="1">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="F9" s="1">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="G9" s="1">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="H9" s="1">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="I9" s="1">
-        <v>44640</v>
+        <v>25920</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -6150,28 +5825,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>596399.99999999988</v>
+        <v>259200</v>
       </c>
       <c r="C10" s="1">
-        <v>596399.99999999988</v>
+        <v>259200</v>
       </c>
       <c r="D10" s="1">
-        <v>596399.99999999988</v>
+        <v>259200</v>
       </c>
       <c r="E10" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="F10" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="G10" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="H10" s="1">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="I10" s="1">
-        <v>71424</v>
+        <v>38880</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6182,28 +5857,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>681599.99999999988</v>
+        <v>291600</v>
       </c>
       <c r="C11" s="1">
-        <v>681599.99999999988</v>
+        <v>291600</v>
       </c>
       <c r="D11" s="1">
-        <v>681599.99999999988</v>
+        <v>291600</v>
       </c>
       <c r="E11" s="1">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="F11" s="1">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="G11" s="1">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="H11" s="1">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="I11" s="1">
-        <v>107136</v>
+        <v>51840</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6214,30 +5889,222 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1277999.9999999998</v>
+        <v>324000</v>
       </c>
       <c r="C12" s="1">
-        <v>1277999.9999999998</v>
+        <v>324000</v>
       </c>
       <c r="D12" s="1">
-        <v>1277999.9999999998</v>
+        <v>324000</v>
       </c>
       <c r="E12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="I12" s="1">
+        <v>64800</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>432000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>432000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>432000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="I13" s="1">
+        <v>77760</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>540000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>540000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>540000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="I14" s="1">
+        <v>103680</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>648000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>648000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>648000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="I15" s="1">
+        <v>129600</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>756000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>756000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>756000</v>
+      </c>
+      <c r="E16" s="1">
         <v>6000</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F16" s="1">
         <v>6000</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G16" s="1">
         <v>6000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H16" s="1">
         <v>6000</v>
       </c>
-      <c r="I12" s="1">
-        <v>142848</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I16" s="1">
+        <v>155520</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>864000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>864000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>864000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="I17" s="1">
+        <v>181440</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1620000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1620000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1620000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="I18" s="1">
+        <v>207360</v>
+      </c>
+      <c r="J18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6335,13 +6202,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>32400</v>
+        <v>30240</v>
       </c>
       <c r="C3" s="1">
-        <v>32400</v>
+        <v>30240</v>
       </c>
       <c r="D3" s="1">
-        <v>32400</v>
+        <v>30240</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -6355,8 +6222,8 @@
       <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="I3" s="1">
-        <v>2430</v>
+      <c r="I3" s="3">
+        <v>2268</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -6367,13 +6234,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>64800</v>
+        <v>60480</v>
       </c>
       <c r="C4" s="1">
-        <v>64800</v>
+        <v>60480</v>
       </c>
       <c r="D4" s="1">
-        <v>64800</v>
+        <v>60480</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -6387,8 +6254,8 @@
       <c r="H4" s="1">
         <v>40</v>
       </c>
-      <c r="I4" s="1">
-        <v>3240</v>
+      <c r="I4" s="3">
+        <v>3024</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -6399,13 +6266,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>97200</v>
+        <v>90720</v>
       </c>
       <c r="C5" s="1">
-        <v>97200</v>
+        <v>90720</v>
       </c>
       <c r="D5" s="1">
-        <v>97200</v>
+        <v>90720</v>
       </c>
       <c r="E5" s="1">
         <v>120</v>
@@ -6419,8 +6286,8 @@
       <c r="H5" s="1">
         <v>120</v>
       </c>
-      <c r="I5" s="1">
-        <v>4860</v>
+      <c r="I5" s="3">
+        <v>4536</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -6431,13 +6298,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>129600</v>
+        <v>120960</v>
       </c>
       <c r="C6" s="1">
-        <v>129600</v>
+        <v>120960</v>
       </c>
       <c r="D6" s="1">
-        <v>129600</v>
+        <v>120960</v>
       </c>
       <c r="E6" s="1">
         <v>360</v>
@@ -6451,8 +6318,8 @@
       <c r="H6" s="1">
         <v>360</v>
       </c>
-      <c r="I6" s="1">
-        <v>6480</v>
+      <c r="I6" s="3">
+        <v>6048</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -6463,13 +6330,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>162000</v>
+        <v>151200</v>
       </c>
       <c r="C7" s="1">
-        <v>162000</v>
+        <v>151200</v>
       </c>
       <c r="D7" s="1">
-        <v>162000</v>
+        <v>151200</v>
       </c>
       <c r="E7" s="1">
         <v>600</v>
@@ -6483,8 +6350,8 @@
       <c r="H7" s="1">
         <v>600</v>
       </c>
-      <c r="I7" s="1">
-        <v>12960</v>
+      <c r="I7" s="3">
+        <v>12096</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -6495,13 +6362,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>194400</v>
+        <v>181440</v>
       </c>
       <c r="C8" s="1">
-        <v>194400</v>
+        <v>181440</v>
       </c>
       <c r="D8" s="1">
-        <v>194400</v>
+        <v>181440</v>
       </c>
       <c r="E8" s="1">
         <v>1200</v>
@@ -6515,8 +6382,8 @@
       <c r="H8" s="1">
         <v>1200</v>
       </c>
-      <c r="I8" s="1">
-        <v>19440</v>
+      <c r="I8" s="3">
+        <v>18144</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -6527,13 +6394,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>226800</v>
+        <v>211680</v>
       </c>
       <c r="C9" s="1">
-        <v>226800</v>
+        <v>211680</v>
       </c>
       <c r="D9" s="1">
-        <v>226800</v>
+        <v>211680</v>
       </c>
       <c r="E9" s="1">
         <v>1800</v>
@@ -6547,8 +6414,8 @@
       <c r="H9" s="1">
         <v>1800</v>
       </c>
-      <c r="I9" s="1">
-        <v>25920</v>
+      <c r="I9" s="3">
+        <v>24192</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -6559,13 +6426,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>259200</v>
+        <v>241920</v>
       </c>
       <c r="C10" s="1">
-        <v>259200</v>
+        <v>241920</v>
       </c>
       <c r="D10" s="1">
-        <v>259200</v>
+        <v>241920</v>
       </c>
       <c r="E10" s="1">
         <v>2400</v>
@@ -6579,8 +6446,8 @@
       <c r="H10" s="1">
         <v>2400</v>
       </c>
-      <c r="I10" s="1">
-        <v>38880</v>
+      <c r="I10" s="3">
+        <v>36288</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6591,13 +6458,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>291600</v>
+        <v>272160</v>
       </c>
       <c r="C11" s="1">
-        <v>291600</v>
+        <v>272160</v>
       </c>
       <c r="D11" s="1">
-        <v>291600</v>
+        <v>272160</v>
       </c>
       <c r="E11" s="1">
         <v>3000</v>
@@ -6611,8 +6478,8 @@
       <c r="H11" s="1">
         <v>3000</v>
       </c>
-      <c r="I11" s="1">
-        <v>51840</v>
+      <c r="I11" s="3">
+        <v>48384</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6623,13 +6490,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>324000</v>
+        <v>302400</v>
       </c>
       <c r="C12" s="1">
-        <v>324000</v>
+        <v>302400</v>
       </c>
       <c r="D12" s="1">
-        <v>324000</v>
+        <v>302400</v>
       </c>
       <c r="E12" s="1">
         <v>3600</v>
@@ -6643,8 +6510,8 @@
       <c r="H12" s="1">
         <v>3600</v>
       </c>
-      <c r="I12" s="1">
-        <v>64800</v>
+      <c r="I12" s="3">
+        <v>60480</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -6655,13 +6522,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>432000</v>
+        <v>403200</v>
       </c>
       <c r="C13" s="1">
-        <v>432000</v>
+        <v>403200</v>
       </c>
       <c r="D13" s="1">
-        <v>432000</v>
+        <v>403200</v>
       </c>
       <c r="E13" s="1">
         <v>4200</v>
@@ -6675,8 +6542,8 @@
       <c r="H13" s="1">
         <v>4200</v>
       </c>
-      <c r="I13" s="1">
-        <v>77760</v>
+      <c r="I13" s="3">
+        <v>72576</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -6687,13 +6554,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>540000</v>
+        <v>504000</v>
       </c>
       <c r="C14" s="1">
-        <v>540000</v>
+        <v>504000</v>
       </c>
       <c r="D14" s="1">
-        <v>540000</v>
+        <v>504000</v>
       </c>
       <c r="E14" s="1">
         <v>4800</v>
@@ -6707,8 +6574,8 @@
       <c r="H14" s="1">
         <v>4800</v>
       </c>
-      <c r="I14" s="1">
-        <v>103680</v>
+      <c r="I14" s="3">
+        <v>96768</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -6719,13 +6586,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>648000</v>
+        <v>604800</v>
       </c>
       <c r="C15" s="1">
-        <v>648000</v>
+        <v>604800</v>
       </c>
       <c r="D15" s="1">
-        <v>648000</v>
+        <v>604800</v>
       </c>
       <c r="E15" s="1">
         <v>5400</v>
@@ -6739,8 +6606,8 @@
       <c r="H15" s="1">
         <v>5400</v>
       </c>
-      <c r="I15" s="1">
-        <v>129600</v>
+      <c r="I15" s="3">
+        <v>120960</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -6751,13 +6618,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>756000</v>
+        <v>705600</v>
       </c>
       <c r="C16" s="1">
-        <v>756000</v>
+        <v>705600</v>
       </c>
       <c r="D16" s="1">
-        <v>756000</v>
+        <v>705600</v>
       </c>
       <c r="E16" s="1">
         <v>6000</v>
@@ -6771,8 +6638,8 @@
       <c r="H16" s="1">
         <v>6000</v>
       </c>
-      <c r="I16" s="1">
-        <v>155520</v>
+      <c r="I16" s="3">
+        <v>145152</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -6783,13 +6650,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>864000</v>
+        <v>806400</v>
       </c>
       <c r="C17" s="1">
-        <v>864000</v>
+        <v>806400</v>
       </c>
       <c r="D17" s="1">
-        <v>864000</v>
+        <v>806400</v>
       </c>
       <c r="E17" s="1">
         <v>6600</v>
@@ -6803,8 +6670,8 @@
       <c r="H17" s="1">
         <v>6600</v>
       </c>
-      <c r="I17" s="1">
-        <v>181440</v>
+      <c r="I17" s="3">
+        <v>169344</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -6815,13 +6682,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1620000</v>
+        <v>1512000</v>
       </c>
       <c r="C18" s="1">
-        <v>1620000</v>
+        <v>1512000</v>
       </c>
       <c r="D18" s="1">
-        <v>1620000</v>
+        <v>1512000</v>
       </c>
       <c r="E18" s="1">
         <v>7200</v>
@@ -6835,8 +6702,8 @@
       <c r="H18" s="1">
         <v>7200</v>
       </c>
-      <c r="I18" s="1">
-        <v>207360</v>
+      <c r="I18" s="3">
+        <v>193536</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -6856,7 +6723,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -6936,28 +6803,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>30240</v>
+        <v>230400</v>
       </c>
       <c r="C3" s="1">
-        <v>30240</v>
+        <v>230400</v>
       </c>
       <c r="D3" s="1">
-        <v>30240</v>
+        <v>230400</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2268</v>
+        <v>600</v>
+      </c>
+      <c r="I3" s="1">
+        <v>34128</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -6968,28 +6835,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>60480</v>
+        <v>259200</v>
       </c>
       <c r="C4" s="1">
-        <v>60480</v>
+        <v>259200</v>
       </c>
       <c r="D4" s="1">
-        <v>60480</v>
+        <v>259200</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="F4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="G4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3024</v>
+        <v>1200</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45504</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -7000,28 +6867,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>90720</v>
+        <v>288000</v>
       </c>
       <c r="C5" s="1">
-        <v>90720</v>
+        <v>288000</v>
       </c>
       <c r="D5" s="1">
-        <v>90720</v>
+        <v>288000</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>120</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4536</v>
+        <v>1800</v>
+      </c>
+      <c r="I5" s="1">
+        <v>56880</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -7032,28 +6899,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>120960</v>
+        <v>384000</v>
       </c>
       <c r="C6" s="1">
-        <v>120960</v>
+        <v>384000</v>
       </c>
       <c r="D6" s="1">
-        <v>120960</v>
+        <v>384000</v>
       </c>
       <c r="E6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="F6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="G6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>360</v>
-      </c>
-      <c r="I6" s="3">
-        <v>6048</v>
+        <v>2400</v>
+      </c>
+      <c r="I6" s="1">
+        <v>68256</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -7064,28 +6931,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>151200</v>
+        <v>480000</v>
       </c>
       <c r="C7" s="1">
-        <v>151200</v>
+        <v>480000</v>
       </c>
       <c r="D7" s="1">
-        <v>151200</v>
+        <v>480000</v>
       </c>
       <c r="E7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="G7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>600</v>
-      </c>
-      <c r="I7" s="3">
-        <v>12096</v>
+        <v>3000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>91008</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -7096,28 +6963,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>181440</v>
+        <v>576000</v>
       </c>
       <c r="C8" s="1">
-        <v>181440</v>
+        <v>576000</v>
       </c>
       <c r="D8" s="1">
-        <v>181440</v>
+        <v>576000</v>
       </c>
       <c r="E8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="F8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="G8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>18144</v>
+        <v>3600</v>
+      </c>
+      <c r="I8" s="1">
+        <v>113760</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -7128,28 +6995,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>211680</v>
+        <v>672000</v>
       </c>
       <c r="C9" s="1">
-        <v>211680</v>
+        <v>672000</v>
       </c>
       <c r="D9" s="1">
-        <v>211680</v>
+        <v>672000</v>
       </c>
       <c r="E9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="F9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="G9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="H9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>24192</v>
+        <v>4200</v>
+      </c>
+      <c r="I9" s="1">
+        <v>136512</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -7160,28 +7027,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>241920</v>
+        <v>768000</v>
       </c>
       <c r="C10" s="1">
-        <v>241920</v>
+        <v>768000</v>
       </c>
       <c r="D10" s="1">
-        <v>241920</v>
+        <v>768000</v>
       </c>
       <c r="E10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="G10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="H10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>36288</v>
+        <v>4800</v>
+      </c>
+      <c r="I10" s="1">
+        <v>159264</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -7192,28 +7059,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>272160</v>
+        <v>1440000</v>
       </c>
       <c r="C11" s="1">
-        <v>272160</v>
+        <v>1440000</v>
       </c>
       <c r="D11" s="1">
-        <v>272160</v>
+        <v>1440000</v>
       </c>
       <c r="E11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="F11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="G11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="H11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>48384</v>
+        <v>5400</v>
+      </c>
+      <c r="I11" s="1">
+        <v>182016</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -7224,222 +7091,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>302400</v>
+        <v>2880000</v>
       </c>
       <c r="C12" s="1">
-        <v>302400</v>
+        <v>2880000</v>
       </c>
       <c r="D12" s="1">
-        <v>302400</v>
+        <v>2880000</v>
       </c>
       <c r="E12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="F12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>60480</v>
+        <v>6000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>204768</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="C13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="D13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I13" s="3">
-        <v>72576</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>96768</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="C15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="D15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>120960</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="C16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="D16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I16" s="3">
-        <v>145152</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="C17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="D17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>169344</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="H18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>193536</v>
-      </c>
-      <c r="J18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8598,7 +8273,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8607,8 +8282,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+      <c r="A1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9825,415 +9500,6 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="C3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="D3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="E3" s="1">
-        <v>600</v>
-      </c>
-      <c r="F3" s="1">
-        <v>600</v>
-      </c>
-      <c r="G3" s="1">
-        <v>600</v>
-      </c>
-      <c r="H3" s="1">
-        <v>600</v>
-      </c>
-      <c r="I3" s="1">
-        <v>34128</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="D4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45504</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I5" s="1">
-        <v>56880</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I6" s="1">
-        <v>68256</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>91008</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I8" s="1">
-        <v>113760</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I9" s="1">
-        <v>136512</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I10" s="1">
-        <v>159264</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I11" s="1">
-        <v>182016</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>204768</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -13622,8 +12888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13700,13 +12966,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="C3" s="1">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="D3" s="1">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -13721,10 +12987,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
@@ -13732,13 +12998,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>700</v>
+        <v>1440</v>
       </c>
       <c r="C4" s="1">
-        <v>700</v>
+        <v>1440</v>
       </c>
       <c r="D4" s="1">
-        <v>700</v>
+        <v>1440</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -13753,10 +13019,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="J4" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
@@ -13764,13 +13030,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2100</v>
+        <v>4320</v>
       </c>
       <c r="C5" s="1">
-        <v>2100</v>
+        <v>4320</v>
       </c>
       <c r="D5" s="1">
-        <v>2100</v>
+        <v>4320</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -13785,10 +13051,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="J5" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
@@ -13796,13 +13062,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4200</v>
+        <v>8640</v>
       </c>
       <c r="C6" s="1">
-        <v>4200</v>
+        <v>8640</v>
       </c>
       <c r="D6" s="1">
-        <v>4200</v>
+        <v>8640</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -13817,10 +13083,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>180</v>
+        <v>346</v>
       </c>
       <c r="J6" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
@@ -13828,13 +13094,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>12600</v>
+        <v>25920</v>
       </c>
       <c r="C7" s="1">
-        <v>12600</v>
+        <v>25920</v>
       </c>
       <c r="D7" s="1">
-        <v>12600</v>
+        <v>25920</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -13849,10 +13115,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>240</v>
+        <v>648</v>
       </c>
       <c r="J7" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
@@ -13860,31 +13126,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>25200</v>
+        <v>51840</v>
       </c>
       <c r="C8" s="1">
-        <v>25200</v>
+        <v>51840</v>
       </c>
       <c r="D8" s="1">
-        <v>25200</v>
+        <v>51840</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>630</v>
+        <v>1296</v>
       </c>
       <c r="J8" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
@@ -13892,31 +13158,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>37800</v>
+        <v>77760</v>
       </c>
       <c r="C9" s="1">
-        <v>37800</v>
+        <v>77760</v>
       </c>
       <c r="D9" s="1">
-        <v>37800</v>
+        <v>77760</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>945</v>
+        <v>1944</v>
       </c>
       <c r="J9" s="1">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
@@ -13924,31 +13190,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>50400</v>
+        <v>103680</v>
       </c>
       <c r="C10" s="1">
-        <v>50400</v>
+        <v>103680</v>
       </c>
       <c r="D10" s="1">
-        <v>50400</v>
+        <v>103680</v>
       </c>
       <c r="E10" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>1260</v>
+        <v>2592</v>
       </c>
       <c r="J10" s="1">
-        <v>2400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
@@ -13956,31 +13222,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>62999.999999999993</v>
+        <v>129600</v>
       </c>
       <c r="C11" s="1">
-        <v>62999.999999999993</v>
+        <v>129600</v>
       </c>
       <c r="D11" s="1">
-        <v>62999.999999999993</v>
+        <v>129600</v>
       </c>
       <c r="E11" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>1890</v>
+        <v>3888</v>
       </c>
       <c r="J11" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
@@ -13988,31 +13254,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>75600</v>
+        <v>155520</v>
       </c>
       <c r="C12" s="1">
-        <v>75600</v>
+        <v>155520</v>
       </c>
       <c r="D12" s="1">
-        <v>75600</v>
+        <v>155520</v>
       </c>
       <c r="E12" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="F12" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G12" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H12" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>2520</v>
+        <v>5184</v>
       </c>
       <c r="J12" s="1">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
@@ -14020,31 +13286,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>88200</v>
+        <v>181440</v>
       </c>
       <c r="C13" s="1">
-        <v>88200</v>
+        <v>181440</v>
       </c>
       <c r="D13" s="1">
-        <v>88200</v>
+        <v>181440</v>
       </c>
       <c r="E13" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F13" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G13" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H13" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>5040</v>
+        <v>10368</v>
       </c>
       <c r="J13" s="1">
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
@@ -14052,31 +13318,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>100800</v>
+        <v>207360</v>
       </c>
       <c r="C14" s="1">
-        <v>100800</v>
+        <v>207360</v>
       </c>
       <c r="D14" s="1">
-        <v>100800</v>
+        <v>207360</v>
       </c>
       <c r="E14" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="H14" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>7560</v>
+        <v>15552</v>
       </c>
       <c r="J14" s="1">
-        <v>4800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
@@ -14084,31 +13350,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>113400</v>
+        <v>233280</v>
       </c>
       <c r="C15" s="1">
-        <v>113400</v>
+        <v>233280</v>
       </c>
       <c r="D15" s="1">
-        <v>113400</v>
+        <v>233280</v>
       </c>
       <c r="E15" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F15" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="G15" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="H15" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>10080</v>
+        <v>20736</v>
       </c>
       <c r="J15" s="1">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
@@ -14116,31 +13382,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>125999.99999999999</v>
+        <v>259200</v>
       </c>
       <c r="C16" s="1">
-        <v>125999.99999999999</v>
+        <v>259200</v>
       </c>
       <c r="D16" s="1">
-        <v>125999.99999999999</v>
+        <v>259200</v>
       </c>
       <c r="E16" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F16" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G16" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>15120</v>
+        <v>31104</v>
       </c>
       <c r="J16" s="1">
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
@@ -14148,31 +13414,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>168000</v>
+        <v>345600</v>
       </c>
       <c r="C17" s="1">
-        <v>168000</v>
+        <v>345600</v>
       </c>
       <c r="D17" s="1">
-        <v>168000</v>
+        <v>345600</v>
       </c>
       <c r="E17" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G17" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H17" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>20160</v>
+        <v>41472</v>
       </c>
       <c r="J17" s="1">
-        <v>6600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
@@ -14180,31 +13446,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>210000</v>
+        <v>432000</v>
       </c>
       <c r="C18" s="1">
-        <v>210000</v>
+        <v>432000</v>
       </c>
       <c r="D18" s="1">
-        <v>210000</v>
+        <v>432000</v>
       </c>
       <c r="E18" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F18" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="G18" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="H18" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>25200</v>
+        <v>51840</v>
       </c>
       <c r="J18" s="1">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
@@ -14212,31 +13478,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>251999.99999999997</v>
+        <v>518400</v>
       </c>
       <c r="C19" s="1">
-        <v>251999.99999999997</v>
+        <v>518400</v>
       </c>
       <c r="D19" s="1">
-        <v>251999.99999999997</v>
+        <v>518400</v>
       </c>
       <c r="E19" s="1">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="F19" s="1">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="G19" s="1">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="H19" s="1">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>30240</v>
+        <v>62208</v>
       </c>
       <c r="J19" s="1">
-        <v>7800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
@@ -14244,31 +13510,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>294000</v>
+        <v>604800</v>
       </c>
       <c r="C20" s="1">
-        <v>294000</v>
+        <v>604800</v>
       </c>
       <c r="D20" s="1">
-        <v>294000</v>
+        <v>604800</v>
       </c>
       <c r="E20" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F20" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="G20" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="H20" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>40320</v>
+        <v>82944</v>
       </c>
       <c r="J20" s="1">
-        <v>8400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
@@ -14276,31 +13542,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>336000</v>
+        <v>691200</v>
       </c>
       <c r="C21" s="1">
-        <v>336000</v>
+        <v>691200</v>
       </c>
       <c r="D21" s="1">
-        <v>336000</v>
+        <v>691200</v>
       </c>
       <c r="E21" s="1">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="F21" s="1">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="G21" s="1">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="H21" s="1">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>50400</v>
+        <v>103680</v>
       </c>
       <c r="J21" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
@@ -14308,31 +13574,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>630000</v>
+        <v>1296000</v>
       </c>
       <c r="C22" s="1">
-        <v>630000</v>
+        <v>1296000</v>
       </c>
       <c r="D22" s="1">
-        <v>630000</v>
+        <v>1296000</v>
       </c>
       <c r="E22" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F22" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G22" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>60480</v>
+        <v>124416</v>
       </c>
       <c r="J22" s="1">
-        <v>9600</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14429,13 +13695,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="C3" s="1">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="D3" s="1">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -14450,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -14461,13 +13727,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="C4" s="1">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="D4" s="1">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -14482,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -14493,13 +13759,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4320</v>
+        <v>4440</v>
       </c>
       <c r="C5" s="1">
-        <v>4320</v>
+        <v>4440</v>
       </c>
       <c r="D5" s="1">
-        <v>4320</v>
+        <v>4440</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -14514,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -14525,13 +13791,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8640</v>
+        <v>8880</v>
       </c>
       <c r="C6" s="1">
-        <v>8640</v>
+        <v>8880</v>
       </c>
       <c r="D6" s="1">
-        <v>8640</v>
+        <v>8880</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -14546,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -14557,13 +13823,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>25920</v>
+        <v>26640</v>
       </c>
       <c r="C7" s="1">
-        <v>25920</v>
+        <v>26640</v>
       </c>
       <c r="D7" s="1">
-        <v>25920</v>
+        <v>26640</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -14578,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -14589,13 +13855,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>51840</v>
+        <v>53280</v>
       </c>
       <c r="C8" s="1">
-        <v>51840</v>
+        <v>53280</v>
       </c>
       <c r="D8" s="1">
-        <v>51840</v>
+        <v>53280</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -14610,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1296</v>
+        <v>1332</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -14621,13 +13887,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>77760</v>
+        <v>79920</v>
       </c>
       <c r="C9" s="1">
-        <v>77760</v>
+        <v>79920</v>
       </c>
       <c r="D9" s="1">
-        <v>77760</v>
+        <v>79920</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -14642,7 +13908,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1944</v>
+        <v>1998</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -14653,13 +13919,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>103680</v>
+        <v>106560</v>
       </c>
       <c r="C10" s="1">
-        <v>103680</v>
+        <v>106560</v>
       </c>
       <c r="D10" s="1">
-        <v>103680</v>
+        <v>106560</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -14674,7 +13940,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2592</v>
+        <v>2664</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -14685,13 +13951,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>129600</v>
+        <v>133200</v>
       </c>
       <c r="C11" s="1">
-        <v>129600</v>
+        <v>133200</v>
       </c>
       <c r="D11" s="1">
-        <v>129600</v>
+        <v>133200</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -14706,7 +13972,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3888</v>
+        <v>3996</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -14717,13 +13983,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>155520</v>
+        <v>159840</v>
       </c>
       <c r="C12" s="1">
-        <v>155520</v>
+        <v>159840</v>
       </c>
       <c r="D12" s="1">
-        <v>155520</v>
+        <v>159840</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -14738,7 +14004,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>5184</v>
+        <v>5328</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -14749,13 +14015,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>181440</v>
+        <v>186480</v>
       </c>
       <c r="C13" s="1">
-        <v>181440</v>
+        <v>186480</v>
       </c>
       <c r="D13" s="1">
-        <v>181440</v>
+        <v>186480</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -14770,7 +14036,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>10368</v>
+        <v>10656</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -14781,13 +14047,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>207360</v>
+        <v>213120</v>
       </c>
       <c r="C14" s="1">
-        <v>207360</v>
+        <v>213120</v>
       </c>
       <c r="D14" s="1">
-        <v>207360</v>
+        <v>213120</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -14802,7 +14068,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>15552</v>
+        <v>15984</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -14813,13 +14079,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>233280</v>
+        <v>239760</v>
       </c>
       <c r="C15" s="1">
-        <v>233280</v>
+        <v>239760</v>
       </c>
       <c r="D15" s="1">
-        <v>233280</v>
+        <v>239760</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -14834,7 +14100,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>20736</v>
+        <v>21312</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -14845,13 +14111,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>259200</v>
+        <v>266400</v>
       </c>
       <c r="C16" s="1">
-        <v>259200</v>
+        <v>266400</v>
       </c>
       <c r="D16" s="1">
-        <v>259200</v>
+        <v>266400</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -14866,7 +14132,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>31104</v>
+        <v>31968</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -14877,13 +14143,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>345600</v>
+        <v>355200</v>
       </c>
       <c r="C17" s="1">
-        <v>345600</v>
+        <v>355200</v>
       </c>
       <c r="D17" s="1">
-        <v>345600</v>
+        <v>355200</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -14898,7 +14164,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>41472</v>
+        <v>42624</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -14909,13 +14175,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>432000</v>
+        <v>444000</v>
       </c>
       <c r="C18" s="1">
-        <v>432000</v>
+        <v>444000</v>
       </c>
       <c r="D18" s="1">
-        <v>432000</v>
+        <v>444000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -14930,7 +14196,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>51840</v>
+        <v>53280</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -14941,13 +14207,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>518400</v>
+        <v>532800</v>
       </c>
       <c r="C19" s="1">
-        <v>518400</v>
+        <v>532800</v>
       </c>
       <c r="D19" s="1">
-        <v>518400</v>
+        <v>532800</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -14962,7 +14228,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>62208</v>
+        <v>63936</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -14973,13 +14239,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>604800</v>
+        <v>621600</v>
       </c>
       <c r="C20" s="1">
-        <v>604800</v>
+        <v>621600</v>
       </c>
       <c r="D20" s="1">
-        <v>604800</v>
+        <v>621600</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -14994,7 +14260,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>82944</v>
+        <v>85248</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -15005,13 +14271,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>691200</v>
+        <v>710400</v>
       </c>
       <c r="C21" s="1">
-        <v>691200</v>
+        <v>710400</v>
       </c>
       <c r="D21" s="1">
-        <v>691200</v>
+        <v>710400</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -15026,7 +14292,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>103680</v>
+        <v>106560</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -15037,13 +14303,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1296000</v>
+        <v>1332000</v>
       </c>
       <c r="C22" s="1">
-        <v>1296000</v>
+        <v>1332000</v>
       </c>
       <c r="D22" s="1">
-        <v>1296000</v>
+        <v>1332000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -15058,7 +14324,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>124416</v>
+        <v>127872</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -15081,7 +14347,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15158,13 +14424,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="C3" s="1">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="D3" s="1">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -15179,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -15190,13 +14456,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1480</v>
+        <v>1380</v>
       </c>
       <c r="C4" s="1">
-        <v>1480</v>
+        <v>1380</v>
       </c>
       <c r="D4" s="1">
-        <v>1480</v>
+        <v>1380</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -15211,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -15222,13 +14488,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4440</v>
+        <v>4140</v>
       </c>
       <c r="C5" s="1">
-        <v>4440</v>
+        <v>4140</v>
       </c>
       <c r="D5" s="1">
-        <v>4440</v>
+        <v>4140</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -15243,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -15254,13 +14520,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8880</v>
+        <v>8280</v>
       </c>
       <c r="C6" s="1">
-        <v>8880</v>
+        <v>8280</v>
       </c>
       <c r="D6" s="1">
-        <v>8880</v>
+        <v>8280</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -15275,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -15286,13 +14552,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>26640</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>26640</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>26640</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -15307,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -15318,13 +14584,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>53280</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>53280</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="D8" s="1">
-        <v>53280</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -15339,7 +14605,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1332</v>
+        <v>1242</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -15350,13 +14616,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>79920</v>
+        <v>74520</v>
       </c>
       <c r="C9" s="1">
-        <v>79920</v>
+        <v>74520</v>
       </c>
       <c r="D9" s="1">
-        <v>79920</v>
+        <v>74520</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -15371,7 +14637,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1998</v>
+        <v>1863</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -15382,13 +14648,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>106560</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="C10" s="1">
-        <v>106560</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="D10" s="1">
-        <v>106560</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -15403,7 +14669,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2664</v>
+        <v>2484</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -15414,13 +14680,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>133200</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>133200</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>133200</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -15435,7 +14701,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3996</v>
+        <v>3726</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -15446,13 +14712,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>159840</v>
+        <v>149040</v>
       </c>
       <c r="C12" s="1">
-        <v>159840</v>
+        <v>149040</v>
       </c>
       <c r="D12" s="1">
-        <v>159840</v>
+        <v>149040</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -15467,7 +14733,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>5328</v>
+        <v>4968</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -15478,13 +14744,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>186480</v>
+        <v>173880</v>
       </c>
       <c r="C13" s="1">
-        <v>186480</v>
+        <v>173880</v>
       </c>
       <c r="D13" s="1">
-        <v>186480</v>
+        <v>173880</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -15499,7 +14765,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>10656</v>
+        <v>9936</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -15510,13 +14776,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>213120</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>213120</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>213120</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -15531,7 +14797,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>15984</v>
+        <v>14904</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -15542,13 +14808,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>239760</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>239760</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>239760</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -15563,7 +14829,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>21312</v>
+        <v>19872</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -15574,13 +14840,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>266400</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>266400</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>266400</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -15595,7 +14861,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>31968</v>
+        <v>29808</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -15606,13 +14872,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>355200</v>
+        <v>331200</v>
       </c>
       <c r="C17" s="1">
-        <v>355200</v>
+        <v>331200</v>
       </c>
       <c r="D17" s="1">
-        <v>355200</v>
+        <v>331200</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -15627,7 +14893,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>42624</v>
+        <v>39744</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -15638,13 +14904,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>444000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="C18" s="1">
-        <v>444000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="D18" s="1">
-        <v>444000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -15659,7 +14925,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>53280</v>
+        <v>49680</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -15670,13 +14936,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>532800</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="C19" s="1">
-        <v>532800</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>532800</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -15691,7 +14957,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>63936</v>
+        <v>59616</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -15702,13 +14968,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>621600</v>
+        <v>579600</v>
       </c>
       <c r="C20" s="1">
-        <v>621600</v>
+        <v>579600</v>
       </c>
       <c r="D20" s="1">
-        <v>621600</v>
+        <v>579600</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -15723,7 +14989,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>85248</v>
+        <v>79488</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -15734,13 +15000,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>710400</v>
+        <v>662400</v>
       </c>
       <c r="C21" s="1">
-        <v>710400</v>
+        <v>662400</v>
       </c>
       <c r="D21" s="1">
-        <v>710400</v>
+        <v>662400</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -15755,7 +15021,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>106560</v>
+        <v>99360</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -15766,13 +15032,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1332000</v>
+        <v>1242000</v>
       </c>
       <c r="C22" s="1">
-        <v>1332000</v>
+        <v>1242000</v>
       </c>
       <c r="D22" s="1">
-        <v>1332000</v>
+        <v>1242000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -15787,7 +15053,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>127872</v>
+        <v>119232</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="21600" windowWidth="26860" windowHeight="15980" tabRatio="883" firstSheet="8" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="883" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="foundry" sheetId="29" r:id="rId14"/>
     <sheet name="mill" sheetId="30" r:id="rId15"/>
     <sheet name="townHall" sheetId="31" r:id="rId16"/>
-    <sheet name="acdemy" sheetId="37" r:id="rId17"/>
+    <sheet name="academy" sheetId="37" r:id="rId17"/>
     <sheet name="hospital" sheetId="38" r:id="rId18"/>
     <sheet name="tradeGuild" sheetId="39" r:id="rId19"/>
     <sheet name="prison" sheetId="40" r:id="rId20"/>
@@ -5523,8 +5523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9499,7 +9499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -1,137 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="883" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="380" yWindow="1300" windowWidth="37960" windowHeight="15820" tabRatio="883" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
     <sheet name="tower" sheetId="20" r:id="rId2"/>
     <sheet name="keep" sheetId="17" r:id="rId3"/>
     <sheet name="watchTower" sheetId="45" r:id="rId4"/>
-    <sheet name="dragonEyrie" sheetId="46" r:id="rId5"/>
-    <sheet name="warehouse" sheetId="19" r:id="rId6"/>
-    <sheet name="barracks" sheetId="32" r:id="rId7"/>
-    <sheet name="armyCamp" sheetId="33" r:id="rId8"/>
-    <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
-    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
-    <sheet name="toolShop" sheetId="36" r:id="rId11"/>
-    <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
+    <sheet name="warehouse" sheetId="19" r:id="rId5"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId6"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId7"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId8"/>
+    <sheet name="academy" sheetId="37" r:id="rId9"/>
+    <sheet name="barracks" sheetId="32" r:id="rId10"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId11"/>
+    <sheet name="foundry" sheetId="29" r:id="rId12"/>
     <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
-    <sheet name="foundry" sheetId="29" r:id="rId14"/>
+    <sheet name="lumbermill" sheetId="27" r:id="rId14"/>
     <sheet name="mill" sheetId="30" r:id="rId15"/>
-    <sheet name="townHall" sheetId="31" r:id="rId16"/>
-    <sheet name="academy" sheetId="37" r:id="rId17"/>
-    <sheet name="hospital" sheetId="38" r:id="rId18"/>
-    <sheet name="tradeGuild" sheetId="39" r:id="rId19"/>
-    <sheet name="prison" sheetId="40" r:id="rId20"/>
-    <sheet name="trainingGround" sheetId="41" r:id="rId21"/>
-    <sheet name="hunterhall" sheetId="42" r:id="rId22"/>
-    <sheet name="stable" sheetId="43" r:id="rId23"/>
-    <sheet name="workshop" sheetId="44" r:id="rId24"/>
+    <sheet name="hospital" sheetId="38" r:id="rId16"/>
+    <sheet name="townHall" sheetId="31" r:id="rId17"/>
+    <sheet name="tradeGuild" sheetId="39" r:id="rId18"/>
+    <sheet name="workshop" sheetId="44" r:id="rId19"/>
+    <sheet name="trainingGround" sheetId="41" r:id="rId20"/>
+    <sheet name="hunterhall" sheetId="42" r:id="rId21"/>
+    <sheet name="stable" sheetId="43" r:id="rId22"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -144,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="12">
   <si>
     <t>INT_wood</t>
   </si>
@@ -2098,13 +2088,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>570</v>
+        <v>720</v>
       </c>
       <c r="C3" s="1">
-        <v>570</v>
+        <v>720</v>
       </c>
       <c r="D3" s="1">
-        <v>570</v>
+        <v>720</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2119,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2130,13 +2120,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1140</v>
+        <v>1440</v>
       </c>
       <c r="C4" s="1">
-        <v>1140</v>
+        <v>1440</v>
       </c>
       <c r="D4" s="1">
-        <v>1140</v>
+        <v>1440</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2151,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2162,13 +2152,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3419.9999999999995</v>
+        <v>4320</v>
       </c>
       <c r="C5" s="1">
-        <v>3419.9999999999995</v>
+        <v>4320</v>
       </c>
       <c r="D5" s="1">
-        <v>3419.9999999999995</v>
+        <v>4320</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2183,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2194,13 +2184,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>6839.9999999999991</v>
+        <v>8640</v>
       </c>
       <c r="C6" s="1">
-        <v>6839.9999999999991</v>
+        <v>8640</v>
       </c>
       <c r="D6" s="1">
-        <v>6839.9999999999991</v>
+        <v>8640</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2215,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2226,13 +2216,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>20520</v>
+        <v>25920</v>
       </c>
       <c r="C7" s="1">
-        <v>20520</v>
+        <v>25920</v>
       </c>
       <c r="D7" s="1">
-        <v>20520</v>
+        <v>25920</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2247,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>513</v>
+        <v>648</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2258,13 +2248,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>41040</v>
+        <v>51840</v>
       </c>
       <c r="C8" s="1">
-        <v>41040</v>
+        <v>51840</v>
       </c>
       <c r="D8" s="1">
-        <v>41040</v>
+        <v>51840</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -2279,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1026</v>
+        <v>1296</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2290,13 +2280,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>61559.999999999993</v>
+        <v>77760</v>
       </c>
       <c r="C9" s="1">
-        <v>61559.999999999993</v>
+        <v>77760</v>
       </c>
       <c r="D9" s="1">
-        <v>61559.999999999993</v>
+        <v>77760</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -2311,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1539</v>
+        <v>1944</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -2322,13 +2312,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>82080</v>
+        <v>103680</v>
       </c>
       <c r="C10" s="1">
-        <v>82080</v>
+        <v>103680</v>
       </c>
       <c r="D10" s="1">
-        <v>82080</v>
+        <v>103680</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -2343,7 +2333,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2052</v>
+        <v>2592</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2354,13 +2344,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>102599.99999999999</v>
+        <v>129600</v>
       </c>
       <c r="C11" s="1">
-        <v>102599.99999999999</v>
+        <v>129600</v>
       </c>
       <c r="D11" s="1">
-        <v>102599.99999999999</v>
+        <v>129600</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -2375,7 +2365,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3078</v>
+        <v>3888</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2386,13 +2376,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>123119.99999999999</v>
+        <v>155520</v>
       </c>
       <c r="C12" s="1">
-        <v>123119.99999999999</v>
+        <v>155520</v>
       </c>
       <c r="D12" s="1">
-        <v>123119.99999999999</v>
+        <v>155520</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -2407,7 +2397,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4104</v>
+        <v>5184</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2418,13 +2408,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>143640</v>
+        <v>181440</v>
       </c>
       <c r="C13" s="1">
-        <v>143640</v>
+        <v>181440</v>
       </c>
       <c r="D13" s="1">
-        <v>143640</v>
+        <v>181440</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -2439,7 +2429,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>8208</v>
+        <v>10368</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2450,13 +2440,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>164160</v>
+        <v>207360</v>
       </c>
       <c r="C14" s="1">
-        <v>164160</v>
+        <v>207360</v>
       </c>
       <c r="D14" s="1">
-        <v>164160</v>
+        <v>207360</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -2471,7 +2461,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>12312</v>
+        <v>15552</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2482,13 +2472,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>184679.99999999997</v>
+        <v>233280</v>
       </c>
       <c r="C15" s="1">
-        <v>184679.99999999997</v>
+        <v>233280</v>
       </c>
       <c r="D15" s="1">
-        <v>184679.99999999997</v>
+        <v>233280</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -2503,7 +2493,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>16416</v>
+        <v>20736</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2514,13 +2504,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>205199.99999999997</v>
+        <v>259200</v>
       </c>
       <c r="C16" s="1">
-        <v>205199.99999999997</v>
+        <v>259200</v>
       </c>
       <c r="D16" s="1">
-        <v>205199.99999999997</v>
+        <v>259200</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -2535,7 +2525,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>24624</v>
+        <v>31104</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -2546,13 +2536,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>273600</v>
+        <v>345600</v>
       </c>
       <c r="C17" s="1">
-        <v>273600</v>
+        <v>345600</v>
       </c>
       <c r="D17" s="1">
-        <v>273600</v>
+        <v>345600</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -2567,7 +2557,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>32832</v>
+        <v>41472</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -2578,13 +2568,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>341999.99999999994</v>
+        <v>432000</v>
       </c>
       <c r="C18" s="1">
-        <v>341999.99999999994</v>
+        <v>432000</v>
       </c>
       <c r="D18" s="1">
-        <v>341999.99999999994</v>
+        <v>432000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -2599,7 +2589,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>41040</v>
+        <v>51840</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2610,13 +2600,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>410399.99999999994</v>
+        <v>518400</v>
       </c>
       <c r="C19" s="1">
-        <v>410399.99999999994</v>
+        <v>518400</v>
       </c>
       <c r="D19" s="1">
-        <v>410399.99999999994</v>
+        <v>518400</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -2631,7 +2621,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>49248</v>
+        <v>62208</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -2642,13 +2632,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>478799.99999999994</v>
+        <v>604800</v>
       </c>
       <c r="C20" s="1">
-        <v>478799.99999999994</v>
+        <v>604800</v>
       </c>
       <c r="D20" s="1">
-        <v>478799.99999999994</v>
+        <v>604800</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -2663,7 +2653,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>65664</v>
+        <v>82944</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -2674,13 +2664,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>547200</v>
+        <v>691200</v>
       </c>
       <c r="C21" s="1">
-        <v>547200</v>
+        <v>691200</v>
       </c>
       <c r="D21" s="1">
-        <v>547200</v>
+        <v>691200</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -2695,7 +2685,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>82080</v>
+        <v>103680</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -2706,13 +2696,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1296000</v>
       </c>
       <c r="C22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1296000</v>
       </c>
       <c r="D22" s="1">
-        <v>1025999.9999999999</v>
+        <v>1296000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -2727,7 +2717,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>98496</v>
+        <v>124416</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2750,7 +2740,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2827,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="C3" s="1">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="D3" s="1">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2848,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2859,13 +2849,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1300</v>
+        <v>1380</v>
       </c>
       <c r="C4" s="1">
-        <v>1300</v>
+        <v>1380</v>
       </c>
       <c r="D4" s="1">
-        <v>1300</v>
+        <v>1380</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2880,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2891,13 +2881,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3900</v>
+        <v>4140</v>
       </c>
       <c r="C5" s="1">
-        <v>3900</v>
+        <v>4140</v>
       </c>
       <c r="D5" s="1">
-        <v>3900</v>
+        <v>4140</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2912,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2923,13 +2913,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7800</v>
+        <v>8280</v>
       </c>
       <c r="C6" s="1">
-        <v>7800</v>
+        <v>8280</v>
       </c>
       <c r="D6" s="1">
-        <v>7800</v>
+        <v>8280</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2944,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2955,13 +2945,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>23400</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>23400</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>23400</v>
+        <v>24839.999999999996</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2976,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2987,13 +2977,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>46800</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>46800</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="D8" s="1">
-        <v>46800</v>
+        <v>49679.999999999993</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -3008,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1170</v>
+        <v>1242</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -3019,13 +3009,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>70200</v>
+        <v>74520</v>
       </c>
       <c r="C9" s="1">
-        <v>70200</v>
+        <v>74520</v>
       </c>
       <c r="D9" s="1">
-        <v>70200</v>
+        <v>74520</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -3040,7 +3030,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1755</v>
+        <v>1863</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -3051,13 +3041,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>93600</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="C10" s="1">
-        <v>93600</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="D10" s="1">
-        <v>93600</v>
+        <v>99359.999999999985</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -3072,7 +3062,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2340</v>
+        <v>2484</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -3083,13 +3073,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>117000</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>117000</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>117000</v>
+        <v>124199.99999999999</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -3104,7 +3094,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3510</v>
+        <v>3726</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -3115,13 +3105,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>140400</v>
+        <v>149040</v>
       </c>
       <c r="C12" s="1">
-        <v>140400</v>
+        <v>149040</v>
       </c>
       <c r="D12" s="1">
-        <v>140400</v>
+        <v>149040</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -3136,7 +3126,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4680</v>
+        <v>4968</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -3147,13 +3137,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>163800</v>
+        <v>173880</v>
       </c>
       <c r="C13" s="1">
-        <v>163800</v>
+        <v>173880</v>
       </c>
       <c r="D13" s="1">
-        <v>163800</v>
+        <v>173880</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -3168,7 +3158,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>9360</v>
+        <v>9936</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -3179,13 +3169,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>187200</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>187200</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>187200</v>
+        <v>198719.99999999997</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -3200,7 +3190,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>14040</v>
+        <v>14904</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -3211,13 +3201,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>210600</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>210600</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>210600</v>
+        <v>223559.99999999997</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -3232,7 +3222,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>18720</v>
+        <v>19872</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -3243,13 +3233,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>234000</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>234000</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>234000</v>
+        <v>248399.99999999997</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -3264,7 +3254,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>28080</v>
+        <v>29808</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3275,13 +3265,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>312000</v>
+        <v>331200</v>
       </c>
       <c r="C17" s="1">
-        <v>312000</v>
+        <v>331200</v>
       </c>
       <c r="D17" s="1">
-        <v>312000</v>
+        <v>331200</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -3296,7 +3286,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>37440</v>
+        <v>39744</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3307,13 +3297,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>390000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="C18" s="1">
-        <v>390000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="D18" s="1">
-        <v>390000</v>
+        <v>413999.99999999994</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -3328,7 +3318,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>46800</v>
+        <v>49680</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -3339,13 +3329,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>468000</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="C19" s="1">
-        <v>468000</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>468000</v>
+        <v>496799.99999999994</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -3360,7 +3350,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>56160</v>
+        <v>59616</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3371,13 +3361,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>546000</v>
+        <v>579600</v>
       </c>
       <c r="C20" s="1">
-        <v>546000</v>
+        <v>579600</v>
       </c>
       <c r="D20" s="1">
-        <v>546000</v>
+        <v>579600</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -3392,7 +3382,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>74880</v>
+        <v>79488</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3403,13 +3393,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>624000</v>
+        <v>662400</v>
       </c>
       <c r="C21" s="1">
-        <v>624000</v>
+        <v>662400</v>
       </c>
       <c r="D21" s="1">
-        <v>624000</v>
+        <v>662400</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -3424,7 +3414,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>93600</v>
+        <v>99360</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3435,13 +3425,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1170000</v>
+        <v>1242000</v>
       </c>
       <c r="C22" s="1">
-        <v>1170000</v>
+        <v>1242000</v>
       </c>
       <c r="D22" s="1">
-        <v>1170000</v>
+        <v>1242000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -3456,7 +3446,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>112320</v>
+        <v>119232</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3556,13 +3546,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>156240</v>
+        <v>166320</v>
       </c>
       <c r="C3" s="1">
-        <v>156240</v>
+        <v>166320</v>
       </c>
       <c r="D3" s="1">
-        <v>156240</v>
+        <v>166320</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -3588,13 +3578,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>178560</v>
+        <v>190080</v>
       </c>
       <c r="C4" s="1">
-        <v>178560</v>
+        <v>190080</v>
       </c>
       <c r="D4" s="1">
-        <v>178560</v>
+        <v>190080</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -3620,13 +3610,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>200880</v>
+        <v>213840</v>
       </c>
       <c r="C5" s="1">
-        <v>200880</v>
+        <v>213840</v>
       </c>
       <c r="D5" s="1">
-        <v>200880</v>
+        <v>213840</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -3652,13 +3642,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>223200</v>
+        <v>237600</v>
       </c>
       <c r="C6" s="1">
-        <v>223200</v>
+        <v>237600</v>
       </c>
       <c r="D6" s="1">
-        <v>223200</v>
+        <v>237600</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -3684,13 +3674,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>297600</v>
+        <v>316800</v>
       </c>
       <c r="C7" s="1">
-        <v>297600</v>
+        <v>316800</v>
       </c>
       <c r="D7" s="1">
-        <v>297600</v>
+        <v>316800</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -3716,13 +3706,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>372000</v>
+        <v>396000</v>
       </c>
       <c r="C8" s="1">
-        <v>372000</v>
+        <v>396000</v>
       </c>
       <c r="D8" s="1">
-        <v>372000</v>
+        <v>396000</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -3748,13 +3738,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>446400</v>
+        <v>475200</v>
       </c>
       <c r="C9" s="1">
-        <v>446400</v>
+        <v>475200</v>
       </c>
       <c r="D9" s="1">
-        <v>446400</v>
+        <v>475200</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -3780,13 +3770,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>520800</v>
+        <v>554400</v>
       </c>
       <c r="C10" s="1">
-        <v>520800</v>
+        <v>554400</v>
       </c>
       <c r="D10" s="1">
-        <v>520800</v>
+        <v>554400</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -3812,13 +3802,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>595200</v>
+        <v>633600</v>
       </c>
       <c r="C11" s="1">
-        <v>595200</v>
+        <v>633600</v>
       </c>
       <c r="D11" s="1">
-        <v>595200</v>
+        <v>633600</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -3844,13 +3834,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1116000</v>
+        <v>1188000</v>
       </c>
       <c r="C12" s="1">
-        <v>1116000</v>
+        <v>1188000</v>
       </c>
       <c r="D12" s="1">
-        <v>1116000</v>
+        <v>1188000</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -4374,13 +4364,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>166320</v>
+        <v>156240</v>
       </c>
       <c r="C3" s="1">
-        <v>166320</v>
+        <v>156240</v>
       </c>
       <c r="D3" s="1">
-        <v>166320</v>
+        <v>156240</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
@@ -4406,13 +4396,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>190080</v>
+        <v>178560</v>
       </c>
       <c r="C4" s="1">
-        <v>190080</v>
+        <v>178560</v>
       </c>
       <c r="D4" s="1">
-        <v>190080</v>
+        <v>178560</v>
       </c>
       <c r="E4" s="1">
         <v>1200</v>
@@ -4438,13 +4428,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>213840</v>
+        <v>200880</v>
       </c>
       <c r="C5" s="1">
-        <v>213840</v>
+        <v>200880</v>
       </c>
       <c r="D5" s="1">
-        <v>213840</v>
+        <v>200880</v>
       </c>
       <c r="E5" s="1">
         <v>1800</v>
@@ -4470,13 +4460,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>237600</v>
+        <v>223200</v>
       </c>
       <c r="C6" s="1">
-        <v>237600</v>
+        <v>223200</v>
       </c>
       <c r="D6" s="1">
-        <v>237600</v>
+        <v>223200</v>
       </c>
       <c r="E6" s="1">
         <v>2400</v>
@@ -4502,13 +4492,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>316800</v>
+        <v>297600</v>
       </c>
       <c r="C7" s="1">
-        <v>316800</v>
+        <v>297600</v>
       </c>
       <c r="D7" s="1">
-        <v>316800</v>
+        <v>297600</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -4534,13 +4524,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>396000</v>
+        <v>372000</v>
       </c>
       <c r="C8" s="1">
-        <v>396000</v>
+        <v>372000</v>
       </c>
       <c r="D8" s="1">
-        <v>396000</v>
+        <v>372000</v>
       </c>
       <c r="E8" s="1">
         <v>3600</v>
@@ -4566,13 +4556,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>475200</v>
+        <v>446400</v>
       </c>
       <c r="C9" s="1">
-        <v>475200</v>
+        <v>446400</v>
       </c>
       <c r="D9" s="1">
-        <v>475200</v>
+        <v>446400</v>
       </c>
       <c r="E9" s="1">
         <v>4200</v>
@@ -4598,13 +4588,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>554400</v>
+        <v>520800</v>
       </c>
       <c r="C10" s="1">
-        <v>554400</v>
+        <v>520800</v>
       </c>
       <c r="D10" s="1">
-        <v>554400</v>
+        <v>520800</v>
       </c>
       <c r="E10" s="1">
         <v>4800</v>
@@ -4630,13 +4620,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>633600</v>
+        <v>595200</v>
       </c>
       <c r="C11" s="1">
-        <v>633600</v>
+        <v>595200</v>
       </c>
       <c r="D11" s="1">
-        <v>633600</v>
+        <v>595200</v>
       </c>
       <c r="E11" s="1">
         <v>5400</v>
@@ -4662,13 +4652,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1188000</v>
+        <v>1116000</v>
       </c>
       <c r="C12" s="1">
-        <v>1188000</v>
+        <v>1116000</v>
       </c>
       <c r="D12" s="1">
-        <v>1188000</v>
+        <v>1116000</v>
       </c>
       <c r="E12" s="1">
         <v>6000</v>
@@ -5112,6 +5102,607 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30240</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30240</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30240</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2268</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60480</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60480</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60480</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3024</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>90720</v>
+      </c>
+      <c r="C5" s="1">
+        <v>90720</v>
+      </c>
+      <c r="D5" s="1">
+        <v>90720</v>
+      </c>
+      <c r="E5" s="1">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>120</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4536</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>120960</v>
+      </c>
+      <c r="C6" s="1">
+        <v>120960</v>
+      </c>
+      <c r="D6" s="1">
+        <v>120960</v>
+      </c>
+      <c r="E6" s="1">
+        <v>360</v>
+      </c>
+      <c r="F6" s="1">
+        <v>360</v>
+      </c>
+      <c r="G6" s="1">
+        <v>360</v>
+      </c>
+      <c r="H6" s="1">
+        <v>360</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6048</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>151200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>151200</v>
+      </c>
+      <c r="D7" s="1">
+        <v>151200</v>
+      </c>
+      <c r="E7" s="1">
+        <v>600</v>
+      </c>
+      <c r="F7" s="1">
+        <v>600</v>
+      </c>
+      <c r="G7" s="1">
+        <v>600</v>
+      </c>
+      <c r="H7" s="1">
+        <v>600</v>
+      </c>
+      <c r="I7" s="3">
+        <v>12096</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>181440</v>
+      </c>
+      <c r="C8" s="1">
+        <v>181440</v>
+      </c>
+      <c r="D8" s="1">
+        <v>181440</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>18144</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>211680</v>
+      </c>
+      <c r="C9" s="1">
+        <v>211680</v>
+      </c>
+      <c r="D9" s="1">
+        <v>211680</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>24192</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>241920</v>
+      </c>
+      <c r="C10" s="1">
+        <v>241920</v>
+      </c>
+      <c r="D10" s="1">
+        <v>241920</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>36288</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>272160</v>
+      </c>
+      <c r="C11" s="1">
+        <v>272160</v>
+      </c>
+      <c r="D11" s="1">
+        <v>272160</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I11" s="3">
+        <v>48384</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>302400</v>
+      </c>
+      <c r="C12" s="1">
+        <v>302400</v>
+      </c>
+      <c r="D12" s="1">
+        <v>302400</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>60480</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>403200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>403200</v>
+      </c>
+      <c r="D13" s="1">
+        <v>403200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="I13" s="3">
+        <v>72576</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>504000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>504000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>504000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>96768</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>604800</v>
+      </c>
+      <c r="C15" s="1">
+        <v>604800</v>
+      </c>
+      <c r="D15" s="1">
+        <v>604800</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>120960</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>705600</v>
+      </c>
+      <c r="C16" s="1">
+        <v>705600</v>
+      </c>
+      <c r="D16" s="1">
+        <v>705600</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I16" s="3">
+        <v>145152</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>806400</v>
+      </c>
+      <c r="C17" s="1">
+        <v>806400</v>
+      </c>
+      <c r="D17" s="1">
+        <v>806400</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>169344</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1512000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1512000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1512000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>193536</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -5519,610 +6110,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>32400</v>
-      </c>
-      <c r="C3" s="1">
-        <v>32400</v>
-      </c>
-      <c r="D3" s="1">
-        <v>32400</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2430</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>64800</v>
-      </c>
-      <c r="C4" s="1">
-        <v>64800</v>
-      </c>
-      <c r="D4" s="1">
-        <v>64800</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3240</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>97200</v>
-      </c>
-      <c r="C5" s="1">
-        <v>97200</v>
-      </c>
-      <c r="D5" s="1">
-        <v>97200</v>
-      </c>
-      <c r="E5" s="1">
-        <v>120</v>
-      </c>
-      <c r="F5" s="1">
-        <v>120</v>
-      </c>
-      <c r="G5" s="1">
-        <v>120</v>
-      </c>
-      <c r="H5" s="1">
-        <v>120</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4860</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>129600</v>
-      </c>
-      <c r="C6" s="1">
-        <v>129600</v>
-      </c>
-      <c r="D6" s="1">
-        <v>129600</v>
-      </c>
-      <c r="E6" s="1">
-        <v>360</v>
-      </c>
-      <c r="F6" s="1">
-        <v>360</v>
-      </c>
-      <c r="G6" s="1">
-        <v>360</v>
-      </c>
-      <c r="H6" s="1">
-        <v>360</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6480</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>162000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>162000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>162000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>600</v>
-      </c>
-      <c r="F7" s="1">
-        <v>600</v>
-      </c>
-      <c r="G7" s="1">
-        <v>600</v>
-      </c>
-      <c r="H7" s="1">
-        <v>600</v>
-      </c>
-      <c r="I7" s="1">
-        <v>12960</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>194400</v>
-      </c>
-      <c r="C8" s="1">
-        <v>194400</v>
-      </c>
-      <c r="D8" s="1">
-        <v>194400</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I8" s="1">
-        <v>19440</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>226800</v>
-      </c>
-      <c r="C9" s="1">
-        <v>226800</v>
-      </c>
-      <c r="D9" s="1">
-        <v>226800</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I9" s="1">
-        <v>25920</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>259200</v>
-      </c>
-      <c r="C10" s="1">
-        <v>259200</v>
-      </c>
-      <c r="D10" s="1">
-        <v>259200</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I10" s="1">
-        <v>38880</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>291600</v>
-      </c>
-      <c r="C11" s="1">
-        <v>291600</v>
-      </c>
-      <c r="D11" s="1">
-        <v>291600</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>51840</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>324000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>324000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>324000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="1">
-        <v>64800</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>432000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>432000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>432000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I13" s="1">
-        <v>77760</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>540000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>540000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>540000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I14" s="1">
-        <v>103680</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>648000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>648000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>648000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I15" s="1">
-        <v>129600</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>756000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>756000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>756000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>155520</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>864000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>864000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>864000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I17" s="1">
-        <v>181440</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1620000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1620000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1620000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="H18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="I18" s="1">
-        <v>207360</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -6202,28 +6192,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>30240</v>
+        <v>230400</v>
       </c>
       <c r="C3" s="1">
-        <v>30240</v>
+        <v>230400</v>
       </c>
       <c r="D3" s="1">
-        <v>30240</v>
+        <v>230400</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2268</v>
+        <v>600</v>
+      </c>
+      <c r="I3" s="1">
+        <v>34128</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -6234,28 +6224,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>60480</v>
+        <v>259200</v>
       </c>
       <c r="C4" s="1">
-        <v>60480</v>
+        <v>259200</v>
       </c>
       <c r="D4" s="1">
-        <v>60480</v>
+        <v>259200</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="F4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="G4" s="1">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3024</v>
+        <v>1200</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45504</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -6266,28 +6256,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>90720</v>
+        <v>288000</v>
       </c>
       <c r="C5" s="1">
-        <v>90720</v>
+        <v>288000</v>
       </c>
       <c r="D5" s="1">
-        <v>90720</v>
+        <v>288000</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="1">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>120</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4536</v>
+        <v>1800</v>
+      </c>
+      <c r="I5" s="1">
+        <v>56880</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -6298,28 +6288,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>120960</v>
+        <v>384000</v>
       </c>
       <c r="C6" s="1">
-        <v>120960</v>
+        <v>384000</v>
       </c>
       <c r="D6" s="1">
-        <v>120960</v>
+        <v>384000</v>
       </c>
       <c r="E6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="F6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="G6" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>360</v>
-      </c>
-      <c r="I6" s="3">
-        <v>6048</v>
+        <v>2400</v>
+      </c>
+      <c r="I6" s="1">
+        <v>68256</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -6330,28 +6320,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>151200</v>
+        <v>480000</v>
       </c>
       <c r="C7" s="1">
-        <v>151200</v>
+        <v>480000</v>
       </c>
       <c r="D7" s="1">
-        <v>151200</v>
+        <v>480000</v>
       </c>
       <c r="E7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="G7" s="1">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>600</v>
-      </c>
-      <c r="I7" s="3">
-        <v>12096</v>
+        <v>3000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>91008</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -6362,28 +6352,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>181440</v>
+        <v>576000</v>
       </c>
       <c r="C8" s="1">
-        <v>181440</v>
+        <v>576000</v>
       </c>
       <c r="D8" s="1">
-        <v>181440</v>
+        <v>576000</v>
       </c>
       <c r="E8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="F8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="G8" s="1">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>18144</v>
+        <v>3600</v>
+      </c>
+      <c r="I8" s="1">
+        <v>113760</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -6394,28 +6384,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>211680</v>
+        <v>672000</v>
       </c>
       <c r="C9" s="1">
-        <v>211680</v>
+        <v>672000</v>
       </c>
       <c r="D9" s="1">
-        <v>211680</v>
+        <v>672000</v>
       </c>
       <c r="E9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="F9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="G9" s="1">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="H9" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>24192</v>
+        <v>4200</v>
+      </c>
+      <c r="I9" s="1">
+        <v>136512</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -6426,28 +6416,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>241920</v>
+        <v>768000</v>
       </c>
       <c r="C10" s="1">
-        <v>241920</v>
+        <v>768000</v>
       </c>
       <c r="D10" s="1">
-        <v>241920</v>
+        <v>768000</v>
       </c>
       <c r="E10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="G10" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="H10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>36288</v>
+        <v>4800</v>
+      </c>
+      <c r="I10" s="1">
+        <v>159264</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6458,28 +6448,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>272160</v>
+        <v>1440000</v>
       </c>
       <c r="C11" s="1">
-        <v>272160</v>
+        <v>1440000</v>
       </c>
       <c r="D11" s="1">
-        <v>272160</v>
+        <v>1440000</v>
       </c>
       <c r="E11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="F11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="G11" s="1">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="H11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>48384</v>
+        <v>5400</v>
+      </c>
+      <c r="I11" s="1">
+        <v>182016</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6490,222 +6480,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>302400</v>
+        <v>2880000</v>
       </c>
       <c r="C12" s="1">
-        <v>302400</v>
+        <v>2880000</v>
       </c>
       <c r="D12" s="1">
-        <v>302400</v>
+        <v>2880000</v>
       </c>
       <c r="E12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="F12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>60480</v>
+        <v>6000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>204768</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="C13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="D13" s="1">
-        <v>403200</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I13" s="3">
-        <v>72576</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>504000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>96768</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="C15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="D15" s="1">
-        <v>604800</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>120960</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="C16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="D16" s="1">
-        <v>705600</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I16" s="3">
-        <v>145152</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="C17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="D17" s="1">
-        <v>806400</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H17" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>169344</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1512000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="H18" s="1">
-        <v>7200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>193536</v>
-      </c>
-      <c r="J18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6726,7 +6524,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6735,8 +6533,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+      <c r="A1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7864,7 +7662,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7873,8 +7671,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+      <c r="A1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -8273,7 +8071,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8681,826 +8479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="C3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="D3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="E3" s="1">
-        <v>600</v>
-      </c>
-      <c r="F3" s="1">
-        <v>600</v>
-      </c>
-      <c r="G3" s="1">
-        <v>600</v>
-      </c>
-      <c r="H3" s="1">
-        <v>600</v>
-      </c>
-      <c r="I3" s="1">
-        <v>34128</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="D4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45504</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I5" s="1">
-        <v>56880</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I6" s="1">
-        <v>68256</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>91008</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I8" s="1">
-        <v>113760</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I9" s="1">
-        <v>136512</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I10" s="1">
-        <v>159264</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I11" s="1">
-        <v>182016</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>204768</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="C3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="D3" s="1">
-        <v>230400</v>
-      </c>
-      <c r="E3" s="1">
-        <v>600</v>
-      </c>
-      <c r="F3" s="1">
-        <v>600</v>
-      </c>
-      <c r="G3" s="1">
-        <v>600</v>
-      </c>
-      <c r="H3" s="1">
-        <v>600</v>
-      </c>
-      <c r="I3" s="1">
-        <v>34128</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="D4" s="1">
-        <v>259200</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45504</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>288000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I5" s="1">
-        <v>56880</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>384000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I6" s="1">
-        <v>68256</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>480000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>91008</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>576000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I8" s="1">
-        <v>113760</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>672000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I9" s="1">
-        <v>136512</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>768000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I10" s="1">
-        <v>159264</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I11" s="1">
-        <v>182016</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2880000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>204768</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11431,7 +10411,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11508,13 +10488,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -11529,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -11540,13 +10520,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="1">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="D4" s="1">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -11561,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -11572,13 +10552,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="C5" s="1">
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="D5" s="1">
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -11593,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -11604,13 +10584,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>12000</v>
+        <v>7200</v>
       </c>
       <c r="C6" s="1">
-        <v>12000</v>
+        <v>7200</v>
       </c>
       <c r="D6" s="1">
-        <v>12000</v>
+        <v>7200</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -11625,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>480</v>
+        <v>288</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -11636,13 +10616,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>36000</v>
+        <v>21600</v>
       </c>
       <c r="C7" s="1">
-        <v>36000</v>
+        <v>21600</v>
       </c>
       <c r="D7" s="1">
-        <v>36000</v>
+        <v>21600</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -11657,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>900</v>
+        <v>540</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -11668,13 +10648,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="C8" s="1">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="D8" s="1">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -11689,7 +10669,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1800</v>
+        <v>1080</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -11700,13 +10680,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>108000</v>
+        <v>64800</v>
       </c>
       <c r="C9" s="1">
-        <v>108000</v>
+        <v>64800</v>
       </c>
       <c r="D9" s="1">
-        <v>108000</v>
+        <v>64800</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -11721,7 +10701,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2700</v>
+        <v>1620</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -11732,13 +10712,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>144000</v>
+        <v>86400</v>
       </c>
       <c r="C10" s="1">
-        <v>144000</v>
+        <v>86400</v>
       </c>
       <c r="D10" s="1">
-        <v>144000</v>
+        <v>86400</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -11753,7 +10733,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>3600</v>
+        <v>2160</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -11764,13 +10744,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="C11" s="1">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="D11" s="1">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -11785,7 +10765,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>5400</v>
+        <v>3240</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -11796,13 +10776,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>216000</v>
+        <v>129600</v>
       </c>
       <c r="C12" s="1">
-        <v>216000</v>
+        <v>129600</v>
       </c>
       <c r="D12" s="1">
-        <v>216000</v>
+        <v>129600</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -11817,7 +10797,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>7200</v>
+        <v>4320</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -11828,13 +10808,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>252000</v>
+        <v>151200</v>
       </c>
       <c r="C13" s="1">
-        <v>252000</v>
+        <v>151200</v>
       </c>
       <c r="D13" s="1">
-        <v>252000</v>
+        <v>151200</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -11849,7 +10829,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>14400</v>
+        <v>8640</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -11860,13 +10840,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>288000</v>
+        <v>172800</v>
       </c>
       <c r="C14" s="1">
-        <v>288000</v>
+        <v>172800</v>
       </c>
       <c r="D14" s="1">
-        <v>288000</v>
+        <v>172800</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -11881,7 +10861,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>21600</v>
+        <v>12960</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -11892,13 +10872,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>324000</v>
+        <v>194400</v>
       </c>
       <c r="C15" s="1">
-        <v>324000</v>
+        <v>194400</v>
       </c>
       <c r="D15" s="1">
-        <v>324000</v>
+        <v>194400</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -11913,7 +10893,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>28800</v>
+        <v>17280</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -11924,13 +10904,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>360000</v>
+        <v>216000</v>
       </c>
       <c r="C16" s="1">
-        <v>360000</v>
+        <v>216000</v>
       </c>
       <c r="D16" s="1">
-        <v>360000</v>
+        <v>216000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -11945,7 +10925,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>43200</v>
+        <v>25920</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -11956,13 +10936,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>480000</v>
+        <v>288000</v>
       </c>
       <c r="C17" s="1">
-        <v>480000</v>
+        <v>288000</v>
       </c>
       <c r="D17" s="1">
-        <v>480000</v>
+        <v>288000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -11977,7 +10957,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>57600</v>
+        <v>34560</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -11988,13 +10968,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>600000</v>
+        <v>360000</v>
       </c>
       <c r="C18" s="1">
-        <v>600000</v>
+        <v>360000</v>
       </c>
       <c r="D18" s="1">
-        <v>600000</v>
+        <v>360000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -12009,7 +10989,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -12020,13 +11000,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>720000</v>
+        <v>432000</v>
       </c>
       <c r="C19" s="1">
-        <v>720000</v>
+        <v>432000</v>
       </c>
       <c r="D19" s="1">
-        <v>720000</v>
+        <v>432000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -12041,7 +11021,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>86400</v>
+        <v>51840</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -12052,13 +11032,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>840000</v>
+        <v>504000</v>
       </c>
       <c r="C20" s="1">
-        <v>840000</v>
+        <v>504000</v>
       </c>
       <c r="D20" s="1">
-        <v>840000</v>
+        <v>504000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -12073,7 +11053,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>115200</v>
+        <v>69120</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -12084,13 +11064,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>960000</v>
+        <v>576000</v>
       </c>
       <c r="C21" s="1">
-        <v>960000</v>
+        <v>576000</v>
       </c>
       <c r="D21" s="1">
-        <v>960000</v>
+        <v>576000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -12105,7 +11085,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>144000</v>
+        <v>86400</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -12116,13 +11096,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1800000</v>
+        <v>1080000</v>
       </c>
       <c r="C22" s="1">
-        <v>1800000</v>
+        <v>1080000</v>
       </c>
       <c r="D22" s="1">
-        <v>1800000</v>
+        <v>1080000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -12137,7 +11117,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>172800</v>
+        <v>103680</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -12160,7 +11140,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12237,13 +11217,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -12258,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -12269,13 +11249,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="C4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -12290,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -12301,13 +11281,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -12322,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -12333,13 +11313,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="1">
-        <v>7200</v>
+        <v>12000</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -12354,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>288</v>
+        <v>480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -12365,13 +11345,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="C7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="D7" s="1">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -12386,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -12397,13 +11377,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="C8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="D8" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -12418,7 +11398,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -12429,13 +11409,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="C9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="D9" s="1">
-        <v>64800</v>
+        <v>108000</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -12450,7 +11430,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1620</v>
+        <v>2700</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -12461,13 +11441,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="C10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="D10" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -12482,7 +11462,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2160</v>
+        <v>3600</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -12493,13 +11473,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="C11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="D11" s="1">
-        <v>108000</v>
+        <v>180000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -12514,7 +11494,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3240</v>
+        <v>5400</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -12525,13 +11505,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="C12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="D12" s="1">
-        <v>129600</v>
+        <v>216000</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -12546,7 +11526,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>4320</v>
+        <v>7200</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -12557,13 +11537,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="C13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="D13" s="1">
-        <v>151200</v>
+        <v>252000</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -12578,7 +11558,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>8640</v>
+        <v>14400</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -12589,13 +11569,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="C14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="D14" s="1">
-        <v>172800</v>
+        <v>288000</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -12610,7 +11590,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>12960</v>
+        <v>21600</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -12621,13 +11601,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="C15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="D15" s="1">
-        <v>194400</v>
+        <v>324000</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -12642,7 +11622,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>17280</v>
+        <v>28800</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -12653,13 +11633,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="C16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="D16" s="1">
-        <v>216000</v>
+        <v>360000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -12674,7 +11654,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>25920</v>
+        <v>43200</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -12685,13 +11665,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="C17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="D17" s="1">
-        <v>288000</v>
+        <v>480000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -12706,7 +11686,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>34560</v>
+        <v>57600</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -12717,13 +11697,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="C18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="D18" s="1">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -12738,7 +11718,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -12749,13 +11729,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="C19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="D19" s="1">
-        <v>432000</v>
+        <v>720000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -12770,7 +11750,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>51840</v>
+        <v>86400</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -12781,13 +11761,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="C20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="D20" s="1">
-        <v>504000</v>
+        <v>840000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -12802,7 +11782,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>69120</v>
+        <v>115200</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -12813,13 +11793,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="C21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="D21" s="1">
-        <v>576000</v>
+        <v>960000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -12834,7 +11814,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>86400</v>
+        <v>144000</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -12845,13 +11825,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="C22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="D22" s="1">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -12866,7 +11846,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>103680</v>
+        <v>172800</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -12966,13 +11946,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="C3" s="1">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="D3" s="1">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -12987,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -12998,13 +11978,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1440</v>
+        <v>1300</v>
       </c>
       <c r="C4" s="1">
-        <v>1440</v>
+        <v>1300</v>
       </c>
       <c r="D4" s="1">
-        <v>1440</v>
+        <v>1300</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -13019,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -13030,13 +12010,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4320</v>
+        <v>3900</v>
       </c>
       <c r="C5" s="1">
-        <v>4320</v>
+        <v>3900</v>
       </c>
       <c r="D5" s="1">
-        <v>4320</v>
+        <v>3900</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -13051,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -13062,13 +12042,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8640</v>
+        <v>7800</v>
       </c>
       <c r="C6" s="1">
-        <v>8640</v>
+        <v>7800</v>
       </c>
       <c r="D6" s="1">
-        <v>8640</v>
+        <v>7800</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -13083,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -13094,13 +12074,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>25920</v>
+        <v>23400</v>
       </c>
       <c r="C7" s="1">
-        <v>25920</v>
+        <v>23400</v>
       </c>
       <c r="D7" s="1">
-        <v>25920</v>
+        <v>23400</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -13115,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>648</v>
+        <v>585</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -13126,13 +12106,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>51840</v>
+        <v>46800</v>
       </c>
       <c r="C8" s="1">
-        <v>51840</v>
+        <v>46800</v>
       </c>
       <c r="D8" s="1">
-        <v>51840</v>
+        <v>46800</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -13147,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1296</v>
+        <v>1170</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -13158,13 +12138,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>77760</v>
+        <v>70200</v>
       </c>
       <c r="C9" s="1">
-        <v>77760</v>
+        <v>70200</v>
       </c>
       <c r="D9" s="1">
-        <v>77760</v>
+        <v>70200</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -13179,7 +12159,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1944</v>
+        <v>1755</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -13190,13 +12170,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>103680</v>
+        <v>93600</v>
       </c>
       <c r="C10" s="1">
-        <v>103680</v>
+        <v>93600</v>
       </c>
       <c r="D10" s="1">
-        <v>103680</v>
+        <v>93600</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -13211,7 +12191,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2592</v>
+        <v>2340</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -13222,13 +12202,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>129600</v>
+        <v>117000</v>
       </c>
       <c r="C11" s="1">
-        <v>129600</v>
+        <v>117000</v>
       </c>
       <c r="D11" s="1">
-        <v>129600</v>
+        <v>117000</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -13243,7 +12223,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3888</v>
+        <v>3510</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -13254,13 +12234,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>155520</v>
+        <v>140400</v>
       </c>
       <c r="C12" s="1">
-        <v>155520</v>
+        <v>140400</v>
       </c>
       <c r="D12" s="1">
-        <v>155520</v>
+        <v>140400</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -13275,7 +12255,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>5184</v>
+        <v>4680</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -13286,13 +12266,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>181440</v>
+        <v>163800</v>
       </c>
       <c r="C13" s="1">
-        <v>181440</v>
+        <v>163800</v>
       </c>
       <c r="D13" s="1">
-        <v>181440</v>
+        <v>163800</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -13307,7 +12287,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>10368</v>
+        <v>9360</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -13318,13 +12298,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>207360</v>
+        <v>187200</v>
       </c>
       <c r="C14" s="1">
-        <v>207360</v>
+        <v>187200</v>
       </c>
       <c r="D14" s="1">
-        <v>207360</v>
+        <v>187200</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -13339,7 +12319,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>15552</v>
+        <v>14040</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -13350,13 +12330,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>233280</v>
+        <v>210600</v>
       </c>
       <c r="C15" s="1">
-        <v>233280</v>
+        <v>210600</v>
       </c>
       <c r="D15" s="1">
-        <v>233280</v>
+        <v>210600</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -13371,7 +12351,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>20736</v>
+        <v>18720</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -13382,13 +12362,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>259200</v>
+        <v>234000</v>
       </c>
       <c r="C16" s="1">
-        <v>259200</v>
+        <v>234000</v>
       </c>
       <c r="D16" s="1">
-        <v>259200</v>
+        <v>234000</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -13403,7 +12383,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>31104</v>
+        <v>28080</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -13414,13 +12394,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>345600</v>
+        <v>312000</v>
       </c>
       <c r="C17" s="1">
-        <v>345600</v>
+        <v>312000</v>
       </c>
       <c r="D17" s="1">
-        <v>345600</v>
+        <v>312000</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -13435,7 +12415,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>41472</v>
+        <v>37440</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -13446,13 +12426,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>432000</v>
+        <v>390000</v>
       </c>
       <c r="C18" s="1">
-        <v>432000</v>
+        <v>390000</v>
       </c>
       <c r="D18" s="1">
-        <v>432000</v>
+        <v>390000</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -13467,7 +12447,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>51840</v>
+        <v>46800</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -13478,13 +12458,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>518400</v>
+        <v>468000</v>
       </c>
       <c r="C19" s="1">
-        <v>518400</v>
+        <v>468000</v>
       </c>
       <c r="D19" s="1">
-        <v>518400</v>
+        <v>468000</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -13499,7 +12479,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>62208</v>
+        <v>56160</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -13510,13 +12490,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>604800</v>
+        <v>546000</v>
       </c>
       <c r="C20" s="1">
-        <v>604800</v>
+        <v>546000</v>
       </c>
       <c r="D20" s="1">
-        <v>604800</v>
+        <v>546000</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -13531,7 +12511,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>82944</v>
+        <v>74880</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -13542,13 +12522,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>691200</v>
+        <v>624000</v>
       </c>
       <c r="C21" s="1">
-        <v>691200</v>
+        <v>624000</v>
       </c>
       <c r="D21" s="1">
-        <v>691200</v>
+        <v>624000</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -13563,7 +12543,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>103680</v>
+        <v>93600</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -13574,13 +12554,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1296000</v>
+        <v>1170000</v>
       </c>
       <c r="C22" s="1">
-        <v>1296000</v>
+        <v>1170000</v>
       </c>
       <c r="D22" s="1">
-        <v>1296000</v>
+        <v>1170000</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -13595,7 +12575,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>124416</v>
+        <v>112320</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -13695,13 +12675,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="C3" s="1">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="D3" s="1">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -13716,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -13727,13 +12707,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1480</v>
+        <v>1140</v>
       </c>
       <c r="C4" s="1">
-        <v>1480</v>
+        <v>1140</v>
       </c>
       <c r="D4" s="1">
-        <v>1480</v>
+        <v>1140</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -13748,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -13759,13 +12739,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4440</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>4440</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>4440</v>
+        <v>3419.9999999999995</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -13780,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -13791,13 +12771,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8880</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="C6" s="1">
-        <v>8880</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="D6" s="1">
-        <v>8880</v>
+        <v>6839.9999999999991</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -13812,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -13823,13 +12803,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>26640</v>
+        <v>20520</v>
       </c>
       <c r="C7" s="1">
-        <v>26640</v>
+        <v>20520</v>
       </c>
       <c r="D7" s="1">
-        <v>26640</v>
+        <v>20520</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -13844,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>666</v>
+        <v>513</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -13855,13 +12835,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>53280</v>
+        <v>41040</v>
       </c>
       <c r="C8" s="1">
-        <v>53280</v>
+        <v>41040</v>
       </c>
       <c r="D8" s="1">
-        <v>53280</v>
+        <v>41040</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -13876,7 +12856,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1332</v>
+        <v>1026</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -13887,13 +12867,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>79920</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>79920</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="D9" s="1">
-        <v>79920</v>
+        <v>61559.999999999993</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -13908,7 +12888,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1998</v>
+        <v>1539</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -13919,13 +12899,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>106560</v>
+        <v>82080</v>
       </c>
       <c r="C10" s="1">
-        <v>106560</v>
+        <v>82080</v>
       </c>
       <c r="D10" s="1">
-        <v>106560</v>
+        <v>82080</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -13940,7 +12920,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>2664</v>
+        <v>2052</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -13951,13 +12931,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>133200</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>133200</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>133200</v>
+        <v>102599.99999999999</v>
       </c>
       <c r="E11" s="1">
         <v>120</v>
@@ -13972,7 +12952,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="1">
-        <v>3996</v>
+        <v>3078</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -13983,13 +12963,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>159840</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>159840</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>159840</v>
+        <v>123119.99999999999</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -14004,7 +12984,7 @@
         <v>360</v>
       </c>
       <c r="I12" s="1">
-        <v>5328</v>
+        <v>4104</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -14015,13 +12995,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>186480</v>
+        <v>143640</v>
       </c>
       <c r="C13" s="1">
-        <v>186480</v>
+        <v>143640</v>
       </c>
       <c r="D13" s="1">
-        <v>186480</v>
+        <v>143640</v>
       </c>
       <c r="E13" s="1">
         <v>600</v>
@@ -14036,7 +13016,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="1">
-        <v>10656</v>
+        <v>8208</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -14047,13 +13027,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>213120</v>
+        <v>164160</v>
       </c>
       <c r="C14" s="1">
-        <v>213120</v>
+        <v>164160</v>
       </c>
       <c r="D14" s="1">
-        <v>213120</v>
+        <v>164160</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -14068,7 +13048,7 @@
         <v>1200</v>
       </c>
       <c r="I14" s="1">
-        <v>15984</v>
+        <v>12312</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -14079,13 +13059,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>239760</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>239760</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>239760</v>
+        <v>184679.99999999997</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -14100,7 +13080,7 @@
         <v>1800</v>
       </c>
       <c r="I15" s="1">
-        <v>21312</v>
+        <v>16416</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -14111,13 +13091,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>266400</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>266400</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>266400</v>
+        <v>205199.99999999997</v>
       </c>
       <c r="E16" s="1">
         <v>2400</v>
@@ -14132,7 +13112,7 @@
         <v>2400</v>
       </c>
       <c r="I16" s="1">
-        <v>31968</v>
+        <v>24624</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -14143,13 +13123,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>355200</v>
+        <v>273600</v>
       </c>
       <c r="C17" s="1">
-        <v>355200</v>
+        <v>273600</v>
       </c>
       <c r="D17" s="1">
-        <v>355200</v>
+        <v>273600</v>
       </c>
       <c r="E17" s="1">
         <v>3000</v>
@@ -14164,7 +13144,7 @@
         <v>3000</v>
       </c>
       <c r="I17" s="1">
-        <v>42624</v>
+        <v>32832</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -14175,13 +13155,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>444000</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="C18" s="1">
-        <v>444000</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="D18" s="1">
-        <v>444000</v>
+        <v>341999.99999999994</v>
       </c>
       <c r="E18" s="1">
         <v>3600</v>
@@ -14196,7 +13176,7 @@
         <v>3600</v>
       </c>
       <c r="I18" s="1">
-        <v>53280</v>
+        <v>41040</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -14207,13 +13187,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>532800</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="C19" s="1">
-        <v>532800</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>532800</v>
+        <v>410399.99999999994</v>
       </c>
       <c r="E19" s="1">
         <v>4200</v>
@@ -14228,7 +13208,7 @@
         <v>4200</v>
       </c>
       <c r="I19" s="1">
-        <v>63936</v>
+        <v>49248</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -14239,13 +13219,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>621600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="C20" s="1">
-        <v>621600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="D20" s="1">
-        <v>621600</v>
+        <v>478799.99999999994</v>
       </c>
       <c r="E20" s="1">
         <v>4800</v>
@@ -14260,7 +13240,7 @@
         <v>4800</v>
       </c>
       <c r="I20" s="1">
-        <v>85248</v>
+        <v>65664</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -14271,13 +13251,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>710400</v>
+        <v>547200</v>
       </c>
       <c r="C21" s="1">
-        <v>710400</v>
+        <v>547200</v>
       </c>
       <c r="D21" s="1">
-        <v>710400</v>
+        <v>547200</v>
       </c>
       <c r="E21" s="1">
         <v>5400</v>
@@ -14292,7 +13272,7 @@
         <v>5400</v>
       </c>
       <c r="I21" s="1">
-        <v>106560</v>
+        <v>82080</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -14303,13 +13283,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1332000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1332000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>1332000</v>
+        <v>1025999.9999999999</v>
       </c>
       <c r="E22" s="1">
         <v>6000</v>
@@ -14324,7 +13304,7 @@
         <v>6000</v>
       </c>
       <c r="I22" s="1">
-        <v>127872</v>
+        <v>98496</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -14344,10 +13324,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14424,28 +13404,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>690</v>
+        <v>32400</v>
       </c>
       <c r="C3" s="1">
-        <v>690</v>
+        <v>32400</v>
       </c>
       <c r="D3" s="1">
-        <v>690</v>
+        <v>32400</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>45</v>
+        <v>2430</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -14456,28 +13436,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1380</v>
+        <v>64800</v>
       </c>
       <c r="C4" s="1">
-        <v>1380</v>
+        <v>64800</v>
       </c>
       <c r="D4" s="1">
-        <v>1380</v>
+        <v>64800</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1">
-        <v>124</v>
+        <v>3240</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -14488,28 +13468,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4140</v>
+        <v>97200</v>
       </c>
       <c r="C5" s="1">
-        <v>4140</v>
+        <v>97200</v>
       </c>
       <c r="D5" s="1">
-        <v>4140</v>
+        <v>97200</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I5" s="1">
-        <v>207</v>
+        <v>4860</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -14520,28 +13500,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8280</v>
+        <v>129600</v>
       </c>
       <c r="C6" s="1">
-        <v>8280</v>
+        <v>129600</v>
       </c>
       <c r="D6" s="1">
-        <v>8280</v>
+        <v>129600</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I6" s="1">
-        <v>331</v>
+        <v>6480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -14552,28 +13532,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>24839.999999999996</v>
+        <v>162000</v>
       </c>
       <c r="C7" s="1">
-        <v>24839.999999999996</v>
+        <v>162000</v>
       </c>
       <c r="D7" s="1">
-        <v>24839.999999999996</v>
+        <v>162000</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I7" s="1">
-        <v>621</v>
+        <v>12960</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -14584,28 +13564,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>49679.999999999993</v>
+        <v>194400</v>
       </c>
       <c r="C8" s="1">
-        <v>49679.999999999993</v>
+        <v>194400</v>
       </c>
       <c r="D8" s="1">
-        <v>49679.999999999993</v>
+        <v>194400</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="I8" s="1">
-        <v>1242</v>
+        <v>19440</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -14616,28 +13596,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>74520</v>
+        <v>226800</v>
       </c>
       <c r="C9" s="1">
-        <v>74520</v>
+        <v>226800</v>
       </c>
       <c r="D9" s="1">
-        <v>74520</v>
+        <v>226800</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="G9" s="1">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="I9" s="1">
-        <v>1863</v>
+        <v>25920</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -14648,28 +13628,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>99359.999999999985</v>
+        <v>259200</v>
       </c>
       <c r="C10" s="1">
-        <v>99359.999999999985</v>
+        <v>259200</v>
       </c>
       <c r="D10" s="1">
-        <v>99359.999999999985</v>
+        <v>259200</v>
       </c>
       <c r="E10" s="1">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="G10" s="1">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="H10" s="1">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="I10" s="1">
-        <v>2484</v>
+        <v>38880</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -14680,28 +13660,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>124199.99999999999</v>
+        <v>291600</v>
       </c>
       <c r="C11" s="1">
-        <v>124199.99999999999</v>
+        <v>291600</v>
       </c>
       <c r="D11" s="1">
-        <v>124199.99999999999</v>
+        <v>291600</v>
       </c>
       <c r="E11" s="1">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="F11" s="1">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="G11" s="1">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="H11" s="1">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="I11" s="1">
-        <v>3726</v>
+        <v>51840</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -14712,28 +13692,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>149040</v>
+        <v>324000</v>
       </c>
       <c r="C12" s="1">
-        <v>149040</v>
+        <v>324000</v>
       </c>
       <c r="D12" s="1">
-        <v>149040</v>
+        <v>324000</v>
       </c>
       <c r="E12" s="1">
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="F12" s="1">
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="G12" s="1">
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="H12" s="1">
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="I12" s="1">
-        <v>4968</v>
+        <v>64800</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -14744,28 +13724,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>173880</v>
+        <v>432000</v>
       </c>
       <c r="C13" s="1">
-        <v>173880</v>
+        <v>432000</v>
       </c>
       <c r="D13" s="1">
-        <v>173880</v>
+        <v>432000</v>
       </c>
       <c r="E13" s="1">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="F13" s="1">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="G13" s="1">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="H13" s="1">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="I13" s="1">
-        <v>9936</v>
+        <v>77760</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -14776,28 +13756,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>198719.99999999997</v>
+        <v>540000</v>
       </c>
       <c r="C14" s="1">
-        <v>198719.99999999997</v>
+        <v>540000</v>
       </c>
       <c r="D14" s="1">
-        <v>198719.99999999997</v>
+        <v>540000</v>
       </c>
       <c r="E14" s="1">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="F14" s="1">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="G14" s="1">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="H14" s="1">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="I14" s="1">
-        <v>14904</v>
+        <v>103680</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -14808,28 +13788,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>223559.99999999997</v>
+        <v>648000</v>
       </c>
       <c r="C15" s="1">
-        <v>223559.99999999997</v>
+        <v>648000</v>
       </c>
       <c r="D15" s="1">
-        <v>223559.99999999997</v>
+        <v>648000</v>
       </c>
       <c r="E15" s="1">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="F15" s="1">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="G15" s="1">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="H15" s="1">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I15" s="1">
-        <v>19872</v>
+        <v>129600</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -14840,28 +13820,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>248399.99999999997</v>
+        <v>756000</v>
       </c>
       <c r="C16" s="1">
-        <v>248399.99999999997</v>
+        <v>756000</v>
       </c>
       <c r="D16" s="1">
-        <v>248399.99999999997</v>
+        <v>756000</v>
       </c>
       <c r="E16" s="1">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="F16" s="1">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="G16" s="1">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="H16" s="1">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="I16" s="1">
-        <v>29808</v>
+        <v>155520</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -14872,28 +13852,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>331200</v>
+        <v>864000</v>
       </c>
       <c r="C17" s="1">
-        <v>331200</v>
+        <v>864000</v>
       </c>
       <c r="D17" s="1">
-        <v>331200</v>
+        <v>864000</v>
       </c>
       <c r="E17" s="1">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="F17" s="1">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="G17" s="1">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="H17" s="1">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="I17" s="1">
-        <v>39744</v>
+        <v>181440</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -14904,158 +13884,30 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>413999.99999999994</v>
+        <v>1620000</v>
       </c>
       <c r="C18" s="1">
-        <v>413999.99999999994</v>
+        <v>1620000</v>
       </c>
       <c r="D18" s="1">
-        <v>413999.99999999994</v>
+        <v>1620000</v>
       </c>
       <c r="E18" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F18" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="G18" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="H18" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I18" s="1">
-        <v>49680</v>
+        <v>207360</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>496799.99999999994</v>
-      </c>
-      <c r="C19" s="1">
-        <v>496799.99999999994</v>
-      </c>
-      <c r="D19" s="1">
-        <v>496799.99999999994</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>59616</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>579600</v>
-      </c>
-      <c r="C20" s="1">
-        <v>579600</v>
-      </c>
-      <c r="D20" s="1">
-        <v>579600</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="I20" s="1">
-        <v>79488</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>662400</v>
-      </c>
-      <c r="C21" s="1">
-        <v>662400</v>
-      </c>
-      <c r="D21" s="1">
-        <v>662400</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="I21" s="1">
-        <v>99360</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1242000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1242000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1242000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>119232</v>
-      </c>
-      <c r="J22" s="1">
         <v>0</v>
       </c>
     </row>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="1100" windowWidth="27180" windowHeight="17220" tabRatio="883" firstSheet="6" activeTab="21"/>
+    <workbookView xWindow="2960" yWindow="1300" windowWidth="27180" windowHeight="17220" tabRatio="883" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -13,17 +13,17 @@
     <sheet name="watchTower" sheetId="45" r:id="rId4"/>
     <sheet name="warehouse" sheetId="19" r:id="rId5"/>
     <sheet name="dragonEyrie" sheetId="46" r:id="rId6"/>
-    <sheet name="toolShop" sheetId="36" r:id="rId7"/>
-    <sheet name="materialDepot" sheetId="35" r:id="rId8"/>
+    <sheet name="barracks" sheetId="32" r:id="rId7"/>
+    <sheet name="hospital" sheetId="38" r:id="rId8"/>
     <sheet name="academy" sheetId="37" r:id="rId9"/>
-    <sheet name="barracks" sheetId="32" r:id="rId10"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
     <sheet name="blackSmith" sheetId="34" r:id="rId11"/>
     <sheet name="foundry" sheetId="29" r:id="rId12"/>
     <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
     <sheet name="lumbermill" sheetId="27" r:id="rId14"/>
     <sheet name="mill" sheetId="30" r:id="rId15"/>
-    <sheet name="hospital" sheetId="38" r:id="rId16"/>
-    <sheet name="townHall" sheetId="31" r:id="rId17"/>
+    <sheet name="townHall" sheetId="31" r:id="rId16"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId17"/>
     <sheet name="tradeGuild" sheetId="39" r:id="rId18"/>
     <sheet name="workshop" sheetId="44" r:id="rId19"/>
     <sheet name="trainingGround" sheetId="41" r:id="rId20"/>
@@ -32,21 +32,21 @@
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
@@ -55,21 +55,21 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
@@ -78,21 +78,21 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
@@ -101,21 +101,21 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
@@ -10589,7 +10589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection sqref="A1:J41"/>
     </sheetView>
   </sheetViews>
@@ -19948,7 +19948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -21286,7 +21286,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -23960,7 +23960,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -25297,7 +25297,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -4,124 +4,124 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="1300" windowWidth="27180" windowHeight="17220" tabRatio="883" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
-    <sheet name="wall" sheetId="18" r:id="rId1"/>
-    <sheet name="tower" sheetId="20" r:id="rId2"/>
-    <sheet name="keep" sheetId="17" r:id="rId3"/>
-    <sheet name="watchTower" sheetId="45" r:id="rId4"/>
-    <sheet name="warehouse" sheetId="19" r:id="rId5"/>
-    <sheet name="dragonEyrie" sheetId="46" r:id="rId6"/>
-    <sheet name="barracks" sheetId="32" r:id="rId7"/>
-    <sheet name="hospital" sheetId="38" r:id="rId8"/>
-    <sheet name="academy" sheetId="37" r:id="rId9"/>
-    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
-    <sheet name="blackSmith" sheetId="34" r:id="rId11"/>
-    <sheet name="foundry" sheetId="29" r:id="rId12"/>
-    <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
-    <sheet name="lumbermill" sheetId="27" r:id="rId14"/>
-    <sheet name="mill" sheetId="30" r:id="rId15"/>
-    <sheet name="townHall" sheetId="31" r:id="rId16"/>
-    <sheet name="toolShop" sheetId="36" r:id="rId17"/>
-    <sheet name="tradeGuild" sheetId="39" r:id="rId18"/>
-    <sheet name="workshop" sheetId="44" r:id="rId19"/>
-    <sheet name="trainingGround" sheetId="41" r:id="rId20"/>
-    <sheet name="hunterHall" sheetId="42" r:id="rId21"/>
-    <sheet name="stable" sheetId="43" r:id="rId22"/>
+    <sheet name="keep" sheetId="17" r:id="rId1"/>
+    <sheet name="watchTower" sheetId="45" r:id="rId2"/>
+    <sheet name="warehouse" sheetId="19" r:id="rId3"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId4"/>
+    <sheet name="barracks" sheetId="32" r:id="rId5"/>
+    <sheet name="hospital" sheetId="38" r:id="rId6"/>
+    <sheet name="academy" sheetId="37" r:id="rId7"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId8"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
+    <sheet name="foundry" sheetId="29" r:id="rId10"/>
+    <sheet name="stoneMason" sheetId="28" r:id="rId11"/>
+    <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
+    <sheet name="mill" sheetId="30" r:id="rId13"/>
+    <sheet name="townHall" sheetId="31" r:id="rId14"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId15"/>
+    <sheet name="tradeGuild" sheetId="39" r:id="rId16"/>
+    <sheet name="workshop" sheetId="44" r:id="rId17"/>
+    <sheet name="trainingGround" sheetId="41" r:id="rId18"/>
+    <sheet name="hunterHall" sheetId="42" r:id="rId19"/>
+    <sheet name="stable" sheetId="43" r:id="rId20"/>
+    <sheet name="wall" sheetId="18" r:id="rId21"/>
+    <sheet name="tower" sheetId="20" r:id="rId22"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -319,7 +319,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="222">
+  <cellStyleXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -546,6 +546,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -559,7 +565,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="222">
+  <cellStyles count="228">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -673,6 +679,9 @@
     <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -779,6 +788,9 @@
     <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1231,7 +1243,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:J41"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7916,7 +7928,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10589,7 +10601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:J41"/>
     </sheetView>
   </sheetViews>
@@ -17275,7 +17287,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -18609,18 +18621,19 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="10" width="20.6640625" style="1"/>
+    <col min="12" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -18652,7 +18665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -18683,8 +18696,9 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -18715,8 +18729,9 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -18747,8 +18762,9 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -18779,8 +18795,9 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -18811,8 +18828,9 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -18843,8 +18861,9 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -18875,8 +18894,9 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -18907,8 +18927,9 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -18939,8 +18960,9 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -18971,8 +18993,9 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -19003,8 +19026,9 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -19035,8 +19059,9 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -19067,8 +19092,9 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -19099,8 +19125,9 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -19131,8 +19158,9 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -19163,8 +19191,9 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -19195,8 +19224,9 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -19227,8 +19257,9 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -19259,8 +19290,9 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -19291,8 +19323,9 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -19323,8 +19356,9 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -19355,8 +19389,9 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -19387,8 +19422,9 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -19419,8 +19455,9 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="20" customHeight="1">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -19451,8 +19488,9 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="20" customHeight="1">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -19483,8 +19521,9 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="20" customHeight="1">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -19515,8 +19554,9 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="20" customHeight="1">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -19547,8 +19587,9 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="20" customHeight="1">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -19579,8 +19620,9 @@
       <c r="J30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="20" customHeight="1">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -19611,8 +19653,9 @@
       <c r="J31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -19643,8 +19686,9 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="20" customHeight="1">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -19675,8 +19719,9 @@
       <c r="J33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="20" customHeight="1">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -19707,8 +19752,9 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="20" customHeight="1">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -19739,8 +19785,9 @@
       <c r="J35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="20" customHeight="1">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -19771,8 +19818,9 @@
       <c r="J36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="20" customHeight="1">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -19803,8 +19851,9 @@
       <c r="J37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="20" customHeight="1">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -19835,8 +19884,9 @@
       <c r="J38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="20" customHeight="1">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -19867,8 +19917,9 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="20" customHeight="1">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -19899,8 +19950,9 @@
       <c r="J40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="20" customHeight="1">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -19931,6 +19983,7 @@
       <c r="J41" s="1">
         <v>0</v>
       </c>
+      <c r="K41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -19949,7 +20002,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -21286,7 +21339,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -22623,7 +22676,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J41"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -23960,7 +24013,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection sqref="A1:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -25297,7 +25350,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection sqref="A1:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="0" windowWidth="35580" windowHeight="20380" tabRatio="883" activeTab="21"/>
+    <workbookView xWindow="-340" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -332,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="544">
+  <cellStyleXfs count="548">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -347,6 +347,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -897,7 +901,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="544">
+  <cellStyles count="548">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1172,6 +1176,8 @@
     <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1439,6 +1445,8 @@
     <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1890,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1954,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1983,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2012,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2041,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2070,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -2099,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -2128,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>3600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -2157,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>7200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -2186,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>14400</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -2215,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>21600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -2244,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>28800</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2273,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>36000</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2302,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>43200</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2331,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>50400</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2360,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>57600</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -2389,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>64800</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -2418,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <v>72000</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -2447,7 +2455,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="1">
-        <v>79200</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -2476,7 +2484,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="1">
-        <v>86400</v>
+        <v>79200</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -2505,7 +2513,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="1">
-        <v>93600</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -2534,7 +2542,7 @@
         <v>46</v>
       </c>
       <c r="I22" s="1">
-        <v>100800</v>
+        <v>93600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -2563,7 +2571,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="1">
-        <v>108000</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -2592,7 +2600,7 @@
         <v>88</v>
       </c>
       <c r="I24" s="1">
-        <v>115200</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -2621,7 +2629,7 @@
         <v>102</v>
       </c>
       <c r="I25" s="1">
-        <v>129600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -2650,7 +2658,7 @@
         <v>135</v>
       </c>
       <c r="I26" s="1">
-        <v>144000</v>
+        <v>129600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -2679,7 +2687,7 @@
         <v>189</v>
       </c>
       <c r="I27" s="1">
-        <v>158400</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -2708,7 +2716,7 @@
         <v>235</v>
       </c>
       <c r="I28" s="1">
-        <v>172800</v>
+        <v>158400</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -2737,7 +2745,7 @@
         <v>288</v>
       </c>
       <c r="I29" s="1">
-        <v>187200</v>
+        <v>172800</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -2766,7 +2774,7 @@
         <v>320</v>
       </c>
       <c r="I30" s="1">
-        <v>201600</v>
+        <v>187200</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -2795,7 +2803,7 @@
         <v>390</v>
       </c>
       <c r="I31" s="1">
-        <v>216000</v>
+        <v>201600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -2824,7 +2832,7 @@
         <v>494</v>
       </c>
       <c r="I32" s="1">
-        <v>230400</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -2853,7 +2861,7 @@
         <v>580</v>
       </c>
       <c r="I33" s="1">
-        <v>244800</v>
+        <v>230400</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -2882,7 +2890,7 @@
         <v>675</v>
       </c>
       <c r="I34" s="1">
-        <v>259200</v>
+        <v>244800</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -2911,7 +2919,7 @@
         <v>781</v>
       </c>
       <c r="I35" s="1">
-        <v>273600</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -2940,7 +2948,7 @@
         <v>897</v>
       </c>
       <c r="I36" s="1">
-        <v>288000</v>
+        <v>273600</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -2969,7 +2977,7 @@
         <v>1024</v>
       </c>
       <c r="I37" s="1">
-        <v>302400</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -2998,7 +3006,7 @@
         <v>1162</v>
       </c>
       <c r="I38" s="1">
-        <v>316800</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -3027,7 +3035,7 @@
         <v>1313</v>
       </c>
       <c r="I39" s="1">
-        <v>331200</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -3056,7 +3064,7 @@
         <v>1476</v>
       </c>
       <c r="I40" s="1">
-        <v>345600</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -18886,7 +18894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="0" windowWidth="30200" windowHeight="17700" tabRatio="883"/>
+    <workbookView xWindow="2440" yWindow="0" windowWidth="30200" windowHeight="17700" tabRatio="883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -332,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="556">
+  <cellStyleXfs count="564">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -347,6 +347,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -909,7 +917,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="556">
+  <cellStyles count="564">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1190,6 +1198,10 @@
     <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1463,6 +1475,10 @@
     <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1914,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -21336,19 +21352,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="9" width="20.6640625" style="1"/>
-    <col min="11" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -21377,7 +21392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -21403,11 +21418,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>48</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -21433,11 +21447,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>96</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -21463,11 +21476,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>240</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -21493,11 +21505,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>480</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -21523,11 +21534,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>960</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -21553,11 +21563,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1920</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -21583,11 +21592,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>2880</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -21613,11 +21621,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>5760</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -21643,11 +21650,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>11520</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -21673,11 +21679,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>17280</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -21703,11 +21708,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>23040</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
+        <v>17280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -21733,11 +21737,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>28800</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
+        <v>23040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -21763,11 +21766,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>34560</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -21793,11 +21795,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>40320</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
+        <v>34560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -21823,11 +21824,10 @@
         <v>4</v>
       </c>
       <c r="I16" s="1">
-        <v>46080</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
+        <v>40320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -21853,11 +21853,10 @@
         <v>8</v>
       </c>
       <c r="I17" s="1">
-        <v>51840</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -21883,11 +21882,10 @@
         <v>13</v>
       </c>
       <c r="I18" s="1">
-        <v>57600</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
+        <v>51840</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -21913,11 +21911,10 @@
         <v>21</v>
       </c>
       <c r="I19" s="1">
-        <v>63360</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -21943,11 +21940,10 @@
         <v>32</v>
       </c>
       <c r="I20" s="1">
-        <v>69120</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
+        <v>63360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -21973,11 +21969,10 @@
         <v>47</v>
       </c>
       <c r="I21" s="1">
-        <v>74880</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
+        <v>69120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -22003,11 +21998,10 @@
         <v>65</v>
       </c>
       <c r="I22" s="1">
-        <v>80640</v>
-      </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1">
+        <v>74880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -22033,11 +22027,10 @@
         <v>88</v>
       </c>
       <c r="I23" s="1">
-        <v>86400</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1">
+        <v>80640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -22063,11 +22056,10 @@
         <v>100</v>
       </c>
       <c r="I24" s="1">
-        <v>92160</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -22093,11 +22085,10 @@
         <v>150</v>
       </c>
       <c r="I25" s="1">
-        <v>103680</v>
-      </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="20" customHeight="1">
+        <v>92160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -22123,11 +22114,10 @@
         <v>189</v>
       </c>
       <c r="I26" s="1">
-        <v>115200</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="20" customHeight="1">
+        <v>103680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -22153,11 +22143,10 @@
         <v>235</v>
       </c>
       <c r="I27" s="1">
-        <v>126720</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -22183,11 +22172,10 @@
         <v>260</v>
       </c>
       <c r="I28" s="1">
-        <v>138240</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" ht="20" customHeight="1">
+        <v>126720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -22213,11 +22201,10 @@
         <v>320</v>
       </c>
       <c r="I29" s="1">
-        <v>149760</v>
-      </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="20" customHeight="1">
+        <v>138240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -22243,11 +22230,10 @@
         <v>417</v>
       </c>
       <c r="I30" s="1">
-        <v>161280</v>
-      </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" ht="20" customHeight="1">
+        <v>149760</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -22273,11 +22259,10 @@
         <v>494</v>
       </c>
       <c r="I31" s="1">
-        <v>172800</v>
-      </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1">
+        <v>161280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -22303,11 +22288,10 @@
         <v>580</v>
       </c>
       <c r="I32" s="1">
-        <v>184320</v>
-      </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="20" customHeight="1">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -22333,11 +22317,10 @@
         <v>660</v>
       </c>
       <c r="I33" s="1">
-        <v>195840</v>
-      </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="20" customHeight="1">
+        <v>184320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -22363,11 +22346,10 @@
         <v>760</v>
       </c>
       <c r="I34" s="1">
-        <v>207360</v>
-      </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="20" customHeight="1">
+        <v>195840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -22393,11 +22375,10 @@
         <v>900</v>
       </c>
       <c r="I35" s="1">
-        <v>218880</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="20" customHeight="1">
+        <v>207360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -22423,11 +22404,10 @@
         <v>1024</v>
       </c>
       <c r="I36" s="1">
-        <v>230400</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="20" customHeight="1">
+        <v>218880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -22453,11 +22433,10 @@
         <v>1160</v>
       </c>
       <c r="I37" s="1">
-        <v>241920</v>
-      </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="20" customHeight="1">
+        <v>230400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -22483,11 +22462,10 @@
         <v>1320</v>
       </c>
       <c r="I38" s="1">
-        <v>253440</v>
-      </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="20" customHeight="1">
+        <v>244800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -22513,11 +22491,10 @@
         <v>1480</v>
       </c>
       <c r="I39" s="1">
-        <v>264960</v>
-      </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" ht="20" customHeight="1">
+        <v>259200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -22543,11 +22520,10 @@
         <v>1320</v>
       </c>
       <c r="I40" s="1">
-        <v>276480</v>
-      </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="20" customHeight="1">
+        <v>273600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -22575,7 +22551,6 @@
       <c r="I41" s="1">
         <v>288000</v>
       </c>
-      <c r="J41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="0" windowWidth="30200" windowHeight="17700" tabRatio="883" activeTab="3"/>
+    <workbookView xWindow="1500" yWindow="960" windowWidth="30200" windowHeight="17700" tabRatio="883" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -3145,7 +3145,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -21354,7 +21354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J42"/>
     </sheetView>
   </sheetViews>
@@ -24996,8 +24996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -25060,7 +25060,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -26211,7 +26211,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -26274,7 +26274,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>160</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -26303,7 +26303,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -26332,7 +26332,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -26361,7 +26361,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>440</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -27425,7 +27425,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -27488,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">

--- a/gameData/shared/BuildingLevelUp.xlsx
+++ b/gameData/shared/BuildingLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="960" windowWidth="30200" windowHeight="17700" tabRatio="883" activeTab="6"/>
+    <workbookView xWindow="1500" yWindow="960" windowWidth="30200" windowHeight="17700" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -1930,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>480</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -24996,7 +24996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
